--- a/Algorithm_tester/data_autosave/synth_runtime.xlsx
+++ b/Algorithm_tester/data_autosave/synth_runtime.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>599.9042987823486</v>
+        <v>274.5168209075928</v>
       </c>
       <c r="I2" t="n">
         <v>-36.17507147065015</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>691.3665294647217</v>
+        <v>321.884298324585</v>
       </c>
       <c r="I3" t="n">
         <v>-22.33150088397609</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>732.7295541763306</v>
+        <v>337.6066088676453</v>
       </c>
       <c r="I4" t="n">
         <v>-10.67251947172889</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>762.1045112609863</v>
+        <v>357.1064472198486</v>
       </c>
       <c r="I5" t="n">
         <v>-8.141834670385995</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>814.490020275116</v>
+        <v>377.3589134216309</v>
       </c>
       <c r="I6" t="n">
         <v>-6.626887217316474</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>926.6947269439696</v>
+        <v>716.2124752998352</v>
       </c>
       <c r="I7" t="n">
         <v>-4.961365363494156</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1721.882104873657</v>
+        <v>1034.914493560791</v>
       </c>
       <c r="I8" t="n">
         <v>-3.181320530181872</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>591.5262699127197</v>
+        <v>265.2909755706787</v>
       </c>
       <c r="I9" t="n">
         <v>-45.52871382558996</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>609.4315886497498</v>
+        <v>268.2865262031555</v>
       </c>
       <c r="I10" t="n">
         <v>-35.33598470555958</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>638.0179524421692</v>
+        <v>277.0092487335205</v>
       </c>
       <c r="I11" t="n">
         <v>-24.67573366176961</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>673.2776165008545</v>
+        <v>293.0283546447754</v>
       </c>
       <c r="I12" t="n">
         <v>-19.4458298354025</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>723.4416007995605</v>
+        <v>308.17711353302</v>
       </c>
       <c r="I13" t="n">
         <v>-14.85770047629924</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>802.2932887077332</v>
+        <v>336.0781788825989</v>
       </c>
       <c r="I14" t="n">
         <v>-10.9891064326133</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1693.409204483032</v>
+        <v>429.6832084655762</v>
       </c>
       <c r="I15" t="n">
         <v>-7.167956638966913</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>569.2377090454102</v>
+        <v>262.2995376586914</v>
       </c>
       <c r="I16" t="n">
         <v>-64.40139920194096</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>591.5490984916687</v>
+        <v>267.2885417938232</v>
       </c>
       <c r="I17" t="n">
         <v>-44.93196285813087</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>619.6402311325073</v>
+        <v>280.2827954292297</v>
       </c>
       <c r="I18" t="n">
         <v>-28.72195453426284</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>649.2022275924683</v>
+        <v>295.403003692627</v>
       </c>
       <c r="I19" t="n">
         <v>-20.86023408198391</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>684.0003132820129</v>
+        <v>308.2378506660461</v>
       </c>
       <c r="I20" t="n">
         <v>-17.24177128282749</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>851.9696235656717</v>
+        <v>343.0428385734558</v>
       </c>
       <c r="I21" t="n">
         <v>-12.09288258958238</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1424.914598464966</v>
+        <v>418.0376529693604</v>
       </c>
       <c r="I22" t="n">
         <v>-9.579119386707687</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>597.4395275115967</v>
+        <v>264.2581462860107</v>
       </c>
       <c r="I23" t="n">
         <v>-80.59521829799431</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>611.1389636993408</v>
+        <v>280.0944924354553</v>
       </c>
       <c r="I24" t="n">
         <v>-40.81316661446084</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>675.2159595489502</v>
+        <v>307.9334497451782</v>
       </c>
       <c r="I25" t="n">
         <v>-24.55360878730608</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>709.505558013916</v>
+        <v>330.6154012680054</v>
       </c>
       <c r="I26" t="n">
         <v>-18.09314021606095</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>737.0834946632385</v>
+        <v>342.564582824707</v>
       </c>
       <c r="I27" t="n">
         <v>-12.82572644746412</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>816.3657665252684</v>
+        <v>377.3070216178892</v>
       </c>
       <c r="I28" t="n">
         <v>-8.861786278335309</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1067.404985427856</v>
+        <v>415.888786315918</v>
       </c>
       <c r="I29" t="n">
         <v>-2.13557309428383</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>578.0870914459229</v>
+        <v>259.5200538635254</v>
       </c>
       <c r="I30" t="n">
         <v>-30.40132612584588</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>593.9487814903259</v>
+        <v>264.5559310913086</v>
       </c>
       <c r="I31" t="n">
         <v>-17.00990368325762</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>604.3593287467957</v>
+        <v>272.1883654594421</v>
       </c>
       <c r="I32" t="n">
         <v>-10.79730769522136</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>614.2617464065552</v>
+        <v>281.2479734420776</v>
       </c>
       <c r="I33" t="n">
         <v>-8.811205799682897</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>637.5684142112732</v>
+        <v>297.2401976585388</v>
       </c>
       <c r="I34" t="n">
         <v>-6.761410231047934</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>692.2751784324646</v>
+        <v>339.1833901405334</v>
       </c>
       <c r="I35" t="n">
         <v>-4.685592921636593</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>888.958215713501</v>
+        <v>477.4305820465088</v>
       </c>
       <c r="I36" t="n">
         <v>-2.727180357512142</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>579.3359279632568</v>
+        <v>255.6037902832031</v>
       </c>
       <c r="I37" t="n">
         <v>-65.05476353360359</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>588.772177696228</v>
+        <v>264.0048623085022</v>
       </c>
       <c r="I38" t="n">
         <v>-39.40481939914356</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>603.5341620445251</v>
+        <v>271.2976336479187</v>
       </c>
       <c r="I39" t="n">
         <v>-25.84925872210696</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>620.0370788574219</v>
+        <v>278.255820274353</v>
       </c>
       <c r="I40" t="n">
         <v>-19.65642812635976</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>649.6367454528809</v>
+        <v>289.2783284187317</v>
       </c>
       <c r="I41" t="n">
         <v>-15.05214905159302</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>698.8180518150328</v>
+        <v>323.4765887260436</v>
       </c>
       <c r="I42" t="n">
         <v>-10.98981215791237</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>898.2930183410645</v>
+        <v>390.1424407958984</v>
       </c>
       <c r="I43" t="n">
         <v>-9.57946628548806</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>589.2999172210693</v>
+        <v>259.3414783477783</v>
       </c>
       <c r="I44" t="n">
         <v>-89.19804935424524</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>598.7420678138733</v>
+        <v>265.2880787849426</v>
       </c>
       <c r="I45" t="n">
         <v>-40.28536243519115</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>607.3768734931946</v>
+        <v>270.4916000366211</v>
       </c>
       <c r="I46" t="n">
         <v>-26.93639427779717</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>618.8446283340454</v>
+        <v>276.2296199798584</v>
       </c>
       <c r="I47" t="n">
         <v>-19.90456904594567</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>640.4670476913452</v>
+        <v>289.2886996269226</v>
       </c>
       <c r="I48" t="n">
         <v>-15.45422482946321</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>694.2296981811523</v>
+        <v>321.547520160675</v>
       </c>
       <c r="I49" t="n">
         <v>-11.02515584972863</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>805.2806854248047</v>
+        <v>473.8085269927979</v>
       </c>
       <c r="I50" t="n">
         <v>-7.98861066284645</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>576.5585899353027</v>
+        <v>256.3185691833496</v>
       </c>
       <c r="I51" t="n">
         <v>-56.01936716241615</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>591.3858294487</v>
+        <v>261.2248539924622</v>
       </c>
       <c r="I52" t="n">
         <v>-35.45746764471953</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>602.7964353561401</v>
+        <v>265.3286457061768</v>
       </c>
       <c r="I53" t="n">
         <v>-24.90615307415656</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>613.3908033370972</v>
+        <v>271.3700532913208</v>
       </c>
       <c r="I54" t="n">
         <v>-18.93786521716053</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>638.6263966560364</v>
+        <v>284.7399711608887</v>
       </c>
       <c r="I55" t="n">
         <v>-13.85705238936638</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>703.0118107795715</v>
+        <v>345.9048867225645</v>
       </c>
       <c r="I56" t="n">
         <v>-10.1663849504844</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>821.5112686157227</v>
+        <v>750.2181529998779</v>
       </c>
       <c r="I57" t="n">
         <v>-3.123097089004272</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>284.3310832977295</v>
+        <v>127.6581287384033</v>
       </c>
       <c r="I58" t="n">
         <v>-36.17507147065015</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>291.2294864654541</v>
+        <v>132.6245665550232</v>
       </c>
       <c r="I59" t="n">
         <v>-22.33150088397609</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>301.1541366577148</v>
+        <v>136.601448059082</v>
       </c>
       <c r="I60" t="n">
         <v>-10.67251947172889</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>312.1508359909058</v>
+        <v>142.7507400512695</v>
       </c>
       <c r="I61" t="n">
         <v>-8.141834670385995</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>337.1883630752563</v>
+        <v>163.2484793663025</v>
       </c>
       <c r="I62" t="n">
         <v>-6.626887217316474</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>388.1243228912352</v>
+        <v>263.0338907241821</v>
       </c>
       <c r="I63" t="n">
         <v>-4.961365363494156</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>962.0876312255859</v>
+        <v>377.6106834411621</v>
       </c>
       <c r="I64" t="n">
         <v>-3.181320530181872</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>224.9400615692139</v>
+        <v>96.77577018737793</v>
       </c>
       <c r="I65" t="n">
         <v>-45.52871382558996</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>239.3604397773743</v>
+        <v>103.6724925041199</v>
       </c>
       <c r="I66" t="n">
         <v>-35.33598470555958</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>258.6963176727295</v>
+        <v>109.70538854599</v>
       </c>
       <c r="I67" t="n">
         <v>-24.67573366176961</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>274.3194103240967</v>
+        <v>115.6893968582153</v>
       </c>
       <c r="I68" t="n">
         <v>-19.4458298354025</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>295.7251667976379</v>
+        <v>122.7810382843018</v>
       </c>
       <c r="I69" t="n">
         <v>-14.85770047629924</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>333.7899208068848</v>
+        <v>138.1017923355103</v>
       </c>
       <c r="I70" t="n">
         <v>-10.9891064326133</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>725.6600856781006</v>
+        <v>166.590690612793</v>
       </c>
       <c r="I71" t="n">
         <v>-7.167956638966913</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>225.0962257385254</v>
+        <v>100.7277965545654</v>
       </c>
       <c r="I72" t="n">
         <v>-64.40139920194096</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>242.3322916030884</v>
+        <v>108.7160468101501</v>
       </c>
       <c r="I73" t="n">
         <v>-44.93196285813087</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>253.3463835716248</v>
+        <v>113.7018799781799</v>
       </c>
       <c r="I74" t="n">
         <v>-28.72195453426284</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>267.2934532165527</v>
+        <v>119.6795701980591</v>
       </c>
       <c r="I75" t="n">
         <v>-20.86023408198391</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>289.2708778381348</v>
+        <v>128.6296844482422</v>
       </c>
       <c r="I76" t="n">
         <v>-17.24177128282749</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>363.9565825462338</v>
+        <v>146.7784762382507</v>
       </c>
       <c r="I77" t="n">
         <v>-12.09288258958238</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>691.2522315979004</v>
+        <v>199.1777420043945</v>
       </c>
       <c r="I78" t="n">
         <v>-9.579119386707687</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>212.9149436950684</v>
+        <v>94.75040435791016</v>
       </c>
       <c r="I79" t="n">
         <v>-80.59521829799431</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>229.840099811554</v>
+        <v>100.7311344146729</v>
       </c>
       <c r="I80" t="n">
         <v>-40.81316661446084</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>249.8764991760254</v>
+        <v>109.7328066825867</v>
       </c>
       <c r="I81" t="n">
         <v>-24.55360878730608</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>287.1825695037842</v>
+        <v>131.4859390258789</v>
       </c>
       <c r="I82" t="n">
         <v>-18.09314021606095</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>299.6748685836792</v>
+        <v>136.633038520813</v>
       </c>
       <c r="I83" t="n">
         <v>-12.82572644746412</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>331.189227104187</v>
+        <v>149.2477059364319</v>
       </c>
       <c r="I84" t="n">
         <v>-8.861786278335309</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>360.8253002166748</v>
+        <v>183.509349822998</v>
       </c>
       <c r="I85" t="n">
         <v>-2.13557309428383</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>282.6099991798401</v>
+        <v>128.6565899848938</v>
       </c>
       <c r="I87" t="n">
         <v>-17.00990368325762</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>291.2524342536926</v>
+        <v>133.6430311203003</v>
       </c>
       <c r="I88" t="n">
         <v>-10.79730769522136</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>299.1578578948975</v>
+        <v>137.694239616394</v>
       </c>
       <c r="I89" t="n">
         <v>-8.811205799682897</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>313.3441805839539</v>
+        <v>146.4802026748657</v>
       </c>
       <c r="I90" t="n">
         <v>-6.761410231047934</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>336.8168115615845</v>
+        <v>171.5441823005676</v>
       </c>
       <c r="I91" t="n">
         <v>-4.685592921636593</v>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>505.6967735290527</v>
+        <v>205.1517963409424</v>
       </c>
       <c r="I92" t="n">
         <v>-2.727180357512142</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>223.2387065887451</v>
+        <v>98.73509407043457</v>
       </c>
       <c r="I93" t="n">
         <v>-65.05476353360359</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>232.3248505592346</v>
+        <v>103.7225484848022</v>
       </c>
       <c r="I94" t="n">
         <v>-39.40481939914356</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>245.9896802902222</v>
+        <v>109.7726821899414</v>
       </c>
       <c r="I95" t="n">
         <v>-25.84925872210696</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>264.9368047714233</v>
+        <v>116.4538860321045</v>
       </c>
       <c r="I96" t="n">
         <v>-19.65642812635976</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>278.9807319641113</v>
+        <v>125.0455975532532</v>
       </c>
       <c r="I97" t="n">
         <v>-15.05214905159302</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>310.9927773475647</v>
+        <v>144.6817874908447</v>
       </c>
       <c r="I98" t="n">
         <v>-10.98981215791237</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>411.9007587432861</v>
+        <v>184.4666004180908</v>
       </c>
       <c r="I99" t="n">
         <v>-9.57946628548806</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>230.4081916809082</v>
+        <v>102.2994518280029</v>
       </c>
       <c r="I100" t="n">
         <v>-89.19804935424524</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>242.3139572143555</v>
+        <v>106.714129447937</v>
       </c>
       <c r="I101" t="n">
         <v>-40.28536243519115</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>257.2975158691406</v>
+        <v>114.6936416625977</v>
       </c>
       <c r="I102" t="n">
         <v>-26.93639427779717</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>267.2864198684692</v>
+        <v>119.0255880355835</v>
       </c>
       <c r="I103" t="n">
         <v>-19.90456904594567</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>282.2772264480591</v>
+        <v>126.6977190971375</v>
       </c>
       <c r="I104" t="n">
         <v>-15.45422482946321</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>313.4551763534545</v>
+        <v>149.8759984970092</v>
       </c>
       <c r="I105" t="n">
         <v>-11.02515584972863</v>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>389.9569511413574</v>
+        <v>293.891429901123</v>
       </c>
       <c r="I106" t="n">
         <v>-7.98861066284645</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>212.4321460723877</v>
+        <v>93.74904632568359</v>
       </c>
       <c r="I107" t="n">
         <v>-56.01936716241615</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>224.3722677230835</v>
+        <v>98.7659215927124</v>
       </c>
       <c r="I108" t="n">
         <v>-35.45746764471953</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>247.3995685577393</v>
+        <v>108.7129712104797</v>
       </c>
       <c r="I109" t="n">
         <v>-24.90615307415656</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>283.6272716522217</v>
+        <v>129.6526193618774</v>
       </c>
       <c r="I110" t="n">
         <v>-18.93786521716053</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>297.0553040504456</v>
+        <v>135.7580423355103</v>
       </c>
       <c r="I111" t="n">
         <v>-13.85705238936638</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>334.0202808380127</v>
+        <v>159.653377532959</v>
       </c>
       <c r="I112" t="n">
         <v>-10.1663849504844</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>496.5815544128418</v>
+        <v>276.151180267334</v>
       </c>
       <c r="I113" t="n">
         <v>-3.123097089004272</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>9.495973587036133</v>
+        <v>9.248733520507812</v>
       </c>
       <c r="I114" t="n">
         <v>-36.17507147065015</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>10.49244403839111</v>
+        <v>10.9223484992981</v>
       </c>
       <c r="I115" t="n">
         <v>-22.33150088397609</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>12.41123676300049</v>
+        <v>12.98230886459351</v>
       </c>
       <c r="I116" t="n">
         <v>-10.67251947172889</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>14.91653919219971</v>
+        <v>15.81776142120361</v>
       </c>
       <c r="I117" t="n">
         <v>-8.141834670385995</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>17.62974262237549</v>
+        <v>40.62163829803467</v>
       </c>
       <c r="I118" t="n">
         <v>-6.626887217316474</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>47.87223339080811</v>
+        <v>101.5629649162292</v>
       </c>
       <c r="I119" t="n">
         <v>-4.961365363494156</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>79.79059219360352</v>
+        <v>192.5656795501709</v>
       </c>
       <c r="I120" t="n">
         <v>-3.181320530181872</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>10.15448570251465</v>
+        <v>8.299827575683594</v>
       </c>
       <c r="I121" t="n">
         <v>-45.52871382558996</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>11.32144927978516</v>
+        <v>11.61801815032959</v>
       </c>
       <c r="I122" t="n">
         <v>-35.33598470555958</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>13.0615234375</v>
+        <v>13.19921016693115</v>
       </c>
       <c r="I123" t="n">
         <v>-24.67573366176961</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>15.1902437210083</v>
+        <v>14.50431346893311</v>
       </c>
       <c r="I124" t="n">
         <v>-19.4458298354025</v>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>18.53257417678833</v>
+        <v>17.23939180374146</v>
       </c>
       <c r="I125" t="n">
         <v>-14.85770047629924</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>42.02089309692379</v>
+        <v>27.32079029083244</v>
       </c>
       <c r="I126" t="n">
         <v>-10.9891064326133</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>96.87232971191406</v>
+        <v>92.33283996582031</v>
       </c>
       <c r="I127" t="n">
         <v>-7.167956638966913</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>9.901523590087891</v>
+        <v>10.98728179931641</v>
       </c>
       <c r="I128" t="n">
         <v>-64.40139920194096</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>10.79685688018799</v>
+        <v>11.90600395202637</v>
       </c>
       <c r="I129" t="n">
         <v>-44.93196285813087</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>12.25131750106812</v>
+        <v>13.23908567428589</v>
       </c>
       <c r="I130" t="n">
         <v>-28.72195453426284</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>14.34016227722168</v>
+        <v>14.69886302947998</v>
       </c>
       <c r="I131" t="n">
         <v>-20.86023408198391</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>16.89130067825317</v>
+        <v>16.65258407592773</v>
       </c>
       <c r="I132" t="n">
         <v>-17.24177128282749</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>48.76519441604614</v>
+        <v>25.05098581314086</v>
       </c>
       <c r="I133" t="n">
         <v>-12.09288258958238</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>119.6813583374023</v>
+        <v>94.79069709777832</v>
       </c>
       <c r="I134" t="n">
         <v>-9.579119386707687</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>9.896516799926758</v>
+        <v>10.15067100524902</v>
       </c>
       <c r="I135" t="n">
         <v>-80.59521829799431</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>11.22993230819702</v>
+        <v>11.62397861480713</v>
       </c>
       <c r="I136" t="n">
         <v>-40.81316661446084</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>12.75134086608887</v>
+        <v>13.38821649551392</v>
       </c>
       <c r="I137" t="n">
         <v>-24.55360878730608</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>14.80579376220703</v>
+        <v>15.72132110595703</v>
       </c>
       <c r="I138" t="n">
         <v>-18.09314021606095</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>17.60631799697876</v>
+        <v>20.15084028244019</v>
       </c>
       <c r="I139" t="n">
         <v>-12.82572644746412</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>23.82750511169432</v>
+        <v>56.72976970672603</v>
       </c>
       <c r="I140" t="n">
         <v>-8.861786278335309</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>112.6575469970703</v>
+        <v>129.652738571167</v>
       </c>
       <c r="I141" t="n">
         <v>-2.13557309428383</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>9.498357772827148</v>
+        <v>9.265422821044922</v>
       </c>
       <c r="I142" t="n">
         <v>-30.40132612584588</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>10.28856039047241</v>
+        <v>11.05393171310425</v>
       </c>
       <c r="I143" t="n">
         <v>-17.00990368325762</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>11.95085048675537</v>
+        <v>12.88628578186035</v>
       </c>
       <c r="I144" t="n">
         <v>-10.79730769522136</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>13.6641263961792</v>
+        <v>15.663743019104</v>
       </c>
       <c r="I145" t="n">
         <v>-8.811205799682897</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>16.73442125320435</v>
+        <v>21.25918865203857</v>
       </c>
       <c r="I146" t="n">
         <v>-6.761410231047934</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>23.18181991577147</v>
+        <v>84.58409309387204</v>
       </c>
       <c r="I147" t="n">
         <v>-4.685592921636593</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>121.675968170166</v>
+        <v>212.7366065979004</v>
       </c>
       <c r="I148" t="n">
         <v>-2.727180357512142</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>10.05268096923828</v>
+        <v>8.675575256347656</v>
       </c>
       <c r="I149" t="n">
         <v>-65.05476353360359</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>11.15552186965942</v>
+        <v>10.76092720031738</v>
       </c>
       <c r="I150" t="n">
         <v>-39.40481939914356</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>13.16994428634644</v>
+        <v>12.94499635696411</v>
       </c>
       <c r="I151" t="n">
         <v>-25.84925872210696</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>15.045166015625</v>
+        <v>15.32244682312012</v>
       </c>
       <c r="I152" t="n">
         <v>-19.65642812635976</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>18.64331960678101</v>
+        <v>18.36174726486206</v>
       </c>
       <c r="I153" t="n">
         <v>-15.05214905159302</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>25.17184019088741</v>
+        <v>28.30125093460083</v>
       </c>
       <c r="I154" t="n">
         <v>-10.98981215791237</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>82.75485038757324</v>
+        <v>69.75483894348145</v>
       </c>
       <c r="I155" t="n">
         <v>-9.57946628548806</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>9.901523590087891</v>
+        <v>9.688377380371094</v>
       </c>
       <c r="I156" t="n">
         <v>-89.19804935424524</v>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>11.11592054367065</v>
+        <v>11.61442995071411</v>
       </c>
       <c r="I157" t="n">
         <v>-40.28536243519115</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>12.67814636230469</v>
+        <v>13.2942795753479</v>
       </c>
       <c r="I158" t="n">
         <v>-26.93639427779717</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>14.6334171295166</v>
+        <v>15.7318115234375</v>
       </c>
       <c r="I159" t="n">
         <v>-19.90456904594567</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>17.61454343795776</v>
+        <v>18.99635791778564</v>
       </c>
       <c r="I160" t="n">
         <v>-15.45422482946321</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>23.96107912063598</v>
+        <v>41.60970449447622</v>
       </c>
       <c r="I161" t="n">
         <v>-11.02515584972863</v>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>43.44320297241211</v>
+        <v>111.2360954284668</v>
       </c>
       <c r="I162" t="n">
         <v>-7.98861066284645</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>10.1008415222168</v>
+        <v>9.792327880859375</v>
       </c>
       <c r="I163" t="n">
         <v>-56.01936716241615</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>11.24112606048584</v>
+        <v>11.31778955459595</v>
       </c>
       <c r="I164" t="n">
         <v>-35.45746764471953</v>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>12.92932033538818</v>
+        <v>13.01825046539307</v>
       </c>
       <c r="I165" t="n">
         <v>-24.90615307415656</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>14.96779918670654</v>
+        <v>14.51945304870605</v>
       </c>
       <c r="I166" t="n">
         <v>-18.93786521716053</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>18.0390477180481</v>
+        <v>17.90148019790649</v>
       </c>
       <c r="I167" t="n">
         <v>-13.85705238936638</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>25.62860250473022</v>
+        <v>40.1547789573669</v>
       </c>
       <c r="I168" t="n">
         <v>-10.1663849504844</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>67.17252731323242</v>
+        <v>120.396614074707</v>
       </c>
       <c r="I169" t="n">
         <v>-3.123097089004272</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>491.1041259765625</v>
+        <v>165.5683517456055</v>
       </c>
       <c r="I170" t="n">
         <v>-36.17507147065015</v>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>502.6080369949341</v>
+        <v>168.5844540596008</v>
       </c>
       <c r="I171" t="n">
         <v>-22.33150088397609</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>516.8980360031128</v>
+        <v>172.3486185073853</v>
       </c>
       <c r="I172" t="n">
         <v>-10.67251947172889</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>536.3565683364868</v>
+        <v>179.345965385437</v>
       </c>
       <c r="I173" t="n">
         <v>-8.141834670385995</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>579.854428768158</v>
+        <v>201.5263438224792</v>
       </c>
       <c r="I174" t="n">
         <v>-6.626887217316474</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>666.1757946014402</v>
+        <v>334.0205430984497</v>
       </c>
       <c r="I175" t="n">
         <v>-4.961365363494156</v>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1033.027648925781</v>
+        <v>522.9711532592773</v>
       </c>
       <c r="I176" t="n">
         <v>-3.181320530181872</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>523.5316753387451</v>
+        <v>167.560338973999</v>
       </c>
       <c r="I177" t="n">
         <v>-45.52871382558996</v>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>531.9655776023865</v>
+        <v>172.5251793861389</v>
       </c>
       <c r="I178" t="n">
         <v>-35.33598470555958</v>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>554.5892715454102</v>
+        <v>177.5600910186768</v>
       </c>
       <c r="I179" t="n">
         <v>-24.67573366176961</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>577.8673887252808</v>
+        <v>182.5463771820068</v>
       </c>
       <c r="I180" t="n">
         <v>-19.4458298354025</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>617.2718405723572</v>
+        <v>187.5001788139343</v>
       </c>
       <c r="I181" t="n">
         <v>-14.85770047629924</v>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>680.9830069541931</v>
+        <v>209.9083065986633</v>
       </c>
       <c r="I182" t="n">
         <v>-10.9891064326133</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>1847.34845161438</v>
+        <v>281.7323207855225</v>
       </c>
       <c r="I183" t="n">
         <v>-7.167956638966913</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>487.1196746826172</v>
+        <v>165.5406951904297</v>
       </c>
       <c r="I184" t="n">
         <v>-64.40139920194096</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>500.7137179374695</v>
+        <v>168.5571074485779</v>
       </c>
       <c r="I185" t="n">
         <v>-44.93196285813087</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>512.5185251235962</v>
+        <v>171.518087387085</v>
       </c>
       <c r="I186" t="n">
         <v>-28.72195453426284</v>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>527.7969837188721</v>
+        <v>174.5345592498779</v>
       </c>
       <c r="I187" t="n">
         <v>-20.86023408198391</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>576.6895413398743</v>
+        <v>178.5240769386292</v>
       </c>
       <c r="I188" t="n">
         <v>-17.24177128282749</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>682.3289155960083</v>
+        <v>201.9949674606323</v>
       </c>
       <c r="I189" t="n">
         <v>-12.09288258958238</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1228.208065032959</v>
+        <v>286.5974903106689</v>
       </c>
       <c r="I190" t="n">
         <v>-9.579119386707687</v>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>498.9268779754639</v>
+        <v>168.5717105865479</v>
       </c>
       <c r="I191" t="n">
         <v>-80.59521829799431</v>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>505.1326513290405</v>
+        <v>171.9768762588501</v>
       </c>
       <c r="I192" t="n">
         <v>-40.81316661446084</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>513.5917067527771</v>
+        <v>176.2340664863586</v>
       </c>
       <c r="I193" t="n">
         <v>-24.55360878730608</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>523.2126712799072</v>
+        <v>180.445671081543</v>
       </c>
       <c r="I194" t="n">
         <v>-18.09314021606095</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>557.915210723877</v>
+        <v>188.218355178833</v>
       </c>
       <c r="I195" t="n">
         <v>-12.82572644746412</v>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>590.1967406272888</v>
+        <v>221.8815326690672</v>
       </c>
       <c r="I196" t="n">
         <v>-8.861786278335309</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1198.588609695435</v>
+        <v>305.3014278411865</v>
       </c>
       <c r="I197" t="n">
         <v>-2.13557309428383</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>498.3329772949219</v>
+        <v>167.5534248352051</v>
       </c>
       <c r="I198" t="n">
         <v>-30.40132612584588</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>503.9598941802979</v>
+        <v>171.7666029930115</v>
       </c>
       <c r="I199" t="n">
         <v>-17.00990368325762</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>514.0260457992554</v>
+        <v>177.3154139518738</v>
       </c>
       <c r="I200" t="n">
         <v>-10.79730769522136</v>
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>525.1109600067139</v>
+        <v>182.9695701599121</v>
       </c>
       <c r="I201" t="n">
         <v>-8.811205799682897</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>548.3814477920532</v>
+        <v>196.7127323150635</v>
       </c>
       <c r="I202" t="n">
         <v>-6.761410231047934</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>590.9788966178894</v>
+        <v>258.4454417228695</v>
       </c>
       <c r="I203" t="n">
         <v>-4.685592921636593</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>762.9973888397217</v>
+        <v>331.7782878875732</v>
       </c>
       <c r="I204" t="n">
         <v>-2.727180357512142</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>489.3107414245605</v>
+        <v>171.1010932922363</v>
       </c>
       <c r="I205" t="n">
         <v>-65.05476353360359</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>528.3218502998352</v>
+        <v>178.5619139671326</v>
       </c>
       <c r="I206" t="n">
         <v>-39.40481939914356</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>548.1072664260864</v>
+        <v>184.1655969619751</v>
       </c>
       <c r="I207" t="n">
         <v>-25.84925872210696</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>563.3859634399414</v>
+        <v>188.8085603713989</v>
       </c>
       <c r="I208" t="n">
         <v>-19.65642812635976</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>584.1155648231506</v>
+        <v>198.339581489563</v>
       </c>
       <c r="I209" t="n">
         <v>-15.05214905159302</v>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>637.9055261611938</v>
+        <v>218.4401273727417</v>
       </c>
       <c r="I210" t="n">
         <v>-10.98981215791237</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>853.0185222625732</v>
+        <v>331.4731121063232</v>
       </c>
       <c r="I211" t="n">
         <v>-9.57946628548806</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>496.8206882476807</v>
+        <v>171.1280345916748</v>
       </c>
       <c r="I212" t="n">
         <v>-89.19804935424524</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>508.9534401893616</v>
+        <v>172.7462768554688</v>
       </c>
       <c r="I213" t="n">
         <v>-40.28536243519115</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>519.253134727478</v>
+        <v>177.028477191925</v>
       </c>
       <c r="I214" t="n">
         <v>-26.93639427779717</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>526.6698598861694</v>
+        <v>182.0957660675049</v>
       </c>
       <c r="I215" t="n">
         <v>-19.90456904594567</v>
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>548.1348633766174</v>
+        <v>190.8714771270752</v>
       </c>
       <c r="I216" t="n">
         <v>-15.45422482946321</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>588.3227467536926</v>
+        <v>232.7507734298705</v>
       </c>
       <c r="I217" t="n">
         <v>-11.02515584972863</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>713.5934829711914</v>
+        <v>311.8937015533447</v>
       </c>
       <c r="I218" t="n">
         <v>-7.98861066284645</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>495.5828189849854</v>
+        <v>167.5479412078857</v>
       </c>
       <c r="I219" t="n">
         <v>-56.01936716241615</v>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>505.3633213043213</v>
+        <v>172.5081086158752</v>
       </c>
       <c r="I220" t="n">
         <v>-35.45746764471953</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>514.3652558326721</v>
+        <v>175.9682297706604</v>
       </c>
       <c r="I221" t="n">
         <v>-24.90615307415656</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>523.5593318939209</v>
+        <v>180.056095123291</v>
       </c>
       <c r="I222" t="n">
         <v>-18.93786521716053</v>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>547.1172332763672</v>
+        <v>185.6513023376465</v>
       </c>
       <c r="I223" t="n">
         <v>-13.85705238936638</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>595.4340457916259</v>
+        <v>217.1385765075683</v>
       </c>
       <c r="I224" t="n">
         <v>-10.1663849504844</v>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>692.0490264892578</v>
+        <v>363.9669418334961</v>
       </c>
       <c r="I225" t="n">
         <v>-3.123097089004272</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>22.9036808013916</v>
+        <v>10.93816757202148</v>
       </c>
       <c r="I226" t="n">
         <v>-36.17507147065015</v>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>23.93603324890137</v>
+        <v>11.95304393768311</v>
       </c>
       <c r="I227" t="n">
         <v>-22.33150088397609</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>25.93010663986206</v>
+        <v>12.96341419219971</v>
       </c>
       <c r="I228" t="n">
         <v>-10.67251947172889</v>
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>27.92549133300781</v>
+        <v>13.94903659820557</v>
       </c>
       <c r="I229" t="n">
         <v>-8.141834670385995</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>30.01093864440918</v>
+        <v>15.39063453674316</v>
       </c>
       <c r="I230" t="n">
         <v>-6.626887217316474</v>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>36.9628071784973</v>
+        <v>32.73005485534667</v>
       </c>
       <c r="I231" t="n">
         <v>-4.961365363494156</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>76.79438591003418</v>
+        <v>66.10465049743652</v>
       </c>
       <c r="I232" t="n">
         <v>-3.181320530181872</v>
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>30.91001510620117</v>
+        <v>14.99080657958984</v>
       </c>
       <c r="I233" t="n">
         <v>-45.52871382558996</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>31.91492557525635</v>
+        <v>15.95567464828491</v>
       </c>
       <c r="I234" t="n">
         <v>-35.33598470555958</v>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>34.9045991897583</v>
+        <v>16.94518327713013</v>
       </c>
       <c r="I235" t="n">
         <v>-24.67573366176961</v>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>36.8659496307373</v>
+        <v>16.95513725280762</v>
       </c>
       <c r="I236" t="n">
         <v>-19.4458298354025</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>38.93309831619263</v>
+        <v>17.94987916946411</v>
       </c>
       <c r="I237" t="n">
         <v>-14.85770047629924</v>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>46.67651653289795</v>
+        <v>20.74270248413086</v>
       </c>
       <c r="I238" t="n">
         <v>-10.9891064326133</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>99.73239898681641</v>
+        <v>45.36628723144531</v>
       </c>
       <c r="I239" t="n">
         <v>-7.167956638966913</v>
@@ -10221,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>27.92239189147949</v>
+        <v>6.708621978759766</v>
       </c>
       <c r="I240" t="n">
         <v>-64.40139920194096</v>
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>29.88250255584717</v>
+        <v>13.98646831512451</v>
       </c>
       <c r="I241" t="n">
         <v>-44.93196285813087</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>30.91996908187866</v>
+        <v>14.96374607086182</v>
       </c>
       <c r="I242" t="n">
         <v>-28.72195453426284</v>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>32.91153907775879</v>
+        <v>15.95664024353027</v>
       </c>
       <c r="I243" t="n">
         <v>-20.86023408198391</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>35.9000563621521</v>
+        <v>16.92861318588257</v>
       </c>
       <c r="I244" t="n">
         <v>-17.24177128282749</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>45.07846832275384</v>
+        <v>20.25263309478759</v>
       </c>
       <c r="I245" t="n">
         <v>-12.09288258958238</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>96.42863273620605</v>
+        <v>65.82307815551758</v>
       </c>
       <c r="I246" t="n">
         <v>-9.579119386707687</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>30.88045120239258</v>
+        <v>11.3065242767334</v>
       </c>
       <c r="I247" t="n">
         <v>-80.59521829799431</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>34.9016547203064</v>
+        <v>16.92842245101929</v>
       </c>
       <c r="I248" t="n">
         <v>-40.81316661446084</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>37.60284185409546</v>
+        <v>17.95148849487305</v>
       </c>
       <c r="I249" t="n">
         <v>-24.55360878730608</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>39.53814506530762</v>
+        <v>18.94962787628174</v>
       </c>
       <c r="I250" t="n">
         <v>-18.09314021606095</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>41.89038276672363</v>
+        <v>19.95068788528442</v>
       </c>
       <c r="I251" t="n">
         <v>-12.82572644746412</v>
@@ -10705,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>47.04778194427489</v>
+        <v>25.9697914123535</v>
       </c>
       <c r="I252" t="n">
         <v>-8.861786278335309</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>60.31370162963867</v>
+        <v>62.82830238342285</v>
       </c>
       <c r="I253" t="n">
         <v>-2.13557309428383</v>
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>20.94197273254395</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>-30.40132612584588</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>22.93848991394043</v>
+        <v>10.97104549407959</v>
       </c>
       <c r="I255" t="n">
         <v>-17.00990368325762</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>23.97173643112183</v>
+        <v>11.96843385696411</v>
       </c>
       <c r="I256" t="n">
         <v>-10.79730769522136</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>25.90703964233398</v>
+        <v>12.96496391296387</v>
       </c>
       <c r="I257" t="n">
         <v>-8.811205799682897</v>
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>27.92227268218994</v>
+        <v>13.96274566650391</v>
       </c>
       <c r="I258" t="n">
         <v>-6.761410231047934</v>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>31.93402290344238</v>
+        <v>18.99859905242918</v>
       </c>
       <c r="I259" t="n">
         <v>-4.685592921636593</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>39.5500659942627</v>
+        <v>31.05258941650391</v>
       </c>
       <c r="I260" t="n">
         <v>-2.727180357512142</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>28.92255783081055</v>
+        <v>3.676414489746094</v>
       </c>
       <c r="I261" t="n">
         <v>-65.05476353360359</v>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>30.91715574264526</v>
+        <v>14.9591326713562</v>
       </c>
       <c r="I262" t="n">
         <v>-39.40481939914356</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>32.9124927520752</v>
+        <v>15.95711708068848</v>
       </c>
       <c r="I263" t="n">
         <v>-25.84925872210696</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>34.90185737609863</v>
+        <v>16.95382595062256</v>
       </c>
       <c r="I264" t="n">
         <v>-19.65642812635976</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>36.89181804656982</v>
+        <v>17.94421672821045</v>
       </c>
       <c r="I265" t="n">
         <v>-15.05214905159302</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>42.95800924301147</v>
+        <v>22.23072052001953</v>
       </c>
       <c r="I266" t="n">
         <v>-10.98981215791237</v>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>92.30446815490723</v>
+        <v>36.83066368103027</v>
       </c>
       <c r="I267" t="n">
         <v>-9.57946628548806</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>26.91102027893066</v>
+        <v>12.92896270751953</v>
       </c>
       <c r="I268" t="n">
         <v>-89.19804935424524</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>28.90464067459106</v>
+        <v>13.9622688293457</v>
       </c>
       <c r="I269" t="n">
         <v>-40.28536243519115</v>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>30.91597557067871</v>
+        <v>14.96052742004395</v>
       </c>
       <c r="I270" t="n">
         <v>-26.93639427779717</v>
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>32.3106050491333</v>
+        <v>15.95687866210938</v>
       </c>
       <c r="I271" t="n">
         <v>-19.90456904594567</v>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>34.27106142044067</v>
+        <v>16.95269346237183</v>
       </c>
       <c r="I272" t="n">
         <v>-15.45422482946321</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>40.92042446136474</v>
+        <v>21.45949602127074</v>
       </c>
       <c r="I273" t="n">
         <v>-11.02515584972863</v>
@@ -11597,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>49.80182647705078</v>
+        <v>29.58512306213379</v>
       </c>
       <c r="I274" t="n">
         <v>-7.98861066284645</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>30.91692924499512</v>
+        <v>14.91212844848633</v>
       </c>
       <c r="I275" t="n">
         <v>-56.01936716241615</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>32.90888071060181</v>
+        <v>15.95687866210938</v>
       </c>
       <c r="I276" t="n">
         <v>-35.45746764471953</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>35.90458631515503</v>
+        <v>17.94058084487915</v>
       </c>
       <c r="I277" t="n">
         <v>-24.90615307415656</v>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>37.92035579681396</v>
+        <v>18.76485347747803</v>
       </c>
       <c r="I278" t="n">
         <v>-18.93786521716053</v>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>40.89045524597168</v>
+        <v>18.98288726806641</v>
       </c>
       <c r="I279" t="n">
         <v>-13.85705238936638</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>47.91506528854369</v>
+        <v>22.94008731842041</v>
       </c>
       <c r="I280" t="n">
         <v>-10.1663849504844</v>
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>90.75617790222168</v>
+        <v>43.02120208740234</v>
       </c>
       <c r="I281" t="n">
         <v>-3.123097089004272</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>17.83785820007324</v>
+        <v>17.29022264480591</v>
       </c>
       <c r="I283" t="n">
         <v>-22.33150088397609</v>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>18.93144845962524</v>
+        <v>18.86516809463501</v>
       </c>
       <c r="I284" t="n">
         <v>-10.67251947172889</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>19.96695995330811</v>
+        <v>19.91152763366699</v>
       </c>
       <c r="I285" t="n">
         <v>-8.141834670385995</v>
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>20.98137140274048</v>
+        <v>21.74288034439087</v>
       </c>
       <c r="I286" t="n">
         <v>-6.626887217316474</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>23.97321462631225</v>
+        <v>26.93102359771729</v>
       </c>
       <c r="I287" t="n">
         <v>-4.961365363494156</v>
@@ -12169,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>38.89703750610352</v>
+        <v>2467.065095901489</v>
       </c>
       <c r="I288" t="n">
         <v>-3.181320530181872</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>16.89243316650391</v>
+        <v>16.94464683532715</v>
       </c>
       <c r="I289" t="n">
         <v>-45.52871382558996</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>18.0328369140625</v>
+        <v>18.36754083633423</v>
       </c>
       <c r="I290" t="n">
         <v>-35.33598470555958</v>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>19.60688829421997</v>
+        <v>19.14030313491821</v>
       </c>
       <c r="I291" t="n">
         <v>-24.67573366176961</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>20.21241188049316</v>
+        <v>19.88887786865234</v>
       </c>
       <c r="I292" t="n">
         <v>-19.4458298354025</v>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>21.16847038269043</v>
+        <v>20.88624238967896</v>
       </c>
       <c r="I293" t="n">
         <v>-14.85770047629924</v>
@@ -12413,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>24.93360042572021</v>
+        <v>22.44976758956909</v>
       </c>
       <c r="I294" t="n">
         <v>-10.9891064326133</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>72.9827880859375</v>
+        <v>3688.81368637085</v>
       </c>
       <c r="I295" t="n">
         <v>-7.167956638966913</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>16.56818389892578</v>
+        <v>17.12775230407715</v>
       </c>
       <c r="I296" t="n">
         <v>-64.40139920194096</v>
@@ -12537,7 +12537,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>17.79555082321167</v>
+        <v>17.93171167373657</v>
       </c>
       <c r="I297" t="n">
         <v>-44.93196285813087</v>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>18.9441442489624</v>
+        <v>18.80824565887451</v>
       </c>
       <c r="I298" t="n">
         <v>-28.72195453426284</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>19.5770263671875</v>
+        <v>19.49644088745117</v>
       </c>
       <c r="I299" t="n">
         <v>-20.86023408198391</v>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>20.55531740188599</v>
+        <v>20.08175849914551</v>
       </c>
       <c r="I300" t="n">
         <v>-17.24177128282749</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>25.72736740112304</v>
+        <v>22.62998819351196</v>
       </c>
       <c r="I301" t="n">
         <v>-12.09288258958238</v>
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>55.84955215454102</v>
+        <v>45.71866989135742</v>
       </c>
       <c r="I302" t="n">
         <v>-9.579119386707687</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>16.3719654083252</v>
+        <v>15.94328880310059</v>
       </c>
       <c r="I303" t="n">
         <v>-80.59521829799431</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>17.26785898208618</v>
+        <v>17.43369102478027</v>
       </c>
       <c r="I304" t="n">
         <v>-40.81316661446084</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>18.43094825744629</v>
+        <v>18.37158203125</v>
       </c>
       <c r="I305" t="n">
         <v>-24.55360878730608</v>
@@ -12901,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>19.21391487121582</v>
+        <v>19.15442943572998</v>
       </c>
       <c r="I306" t="n">
         <v>-18.09314021606095</v>
@@ -12941,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>20.13033628463745</v>
+        <v>20.06131410598755</v>
       </c>
       <c r="I307" t="n">
         <v>-12.82572644746412</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>21.88204526901245</v>
+        <v>21.91642522811889</v>
       </c>
       <c r="I308" t="n">
         <v>-8.861786278335309</v>
@@ -13021,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>28.37800979614258</v>
+        <v>29.14786338806152</v>
       </c>
       <c r="I309" t="n">
         <v>-2.13557309428383</v>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>16.95194244384766</v>
+        <v>17.55295991897583</v>
       </c>
       <c r="I311" t="n">
         <v>-17.00990368325762</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>18.6571478843689</v>
+        <v>18.5808539390564</v>
       </c>
       <c r="I312" t="n">
         <v>-10.79730769522136</v>
@@ -13185,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>19.54352855682373</v>
+        <v>19.36864852905273</v>
       </c>
       <c r="I313" t="n">
         <v>-8.811205799682897</v>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>20.38222551345825</v>
+        <v>20.48218250274658</v>
       </c>
       <c r="I314" t="n">
         <v>-6.761410231047934</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>24.30897951126098</v>
+        <v>25.3294229507446</v>
       </c>
       <c r="I315" t="n">
         <v>-4.685592921636593</v>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="n">
-        <v>48.87127876281738</v>
+        <v>121.0708618164062</v>
       </c>
       <c r="I316" t="n">
         <v>-2.727180357512142</v>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>15.86151123046875</v>
+        <v>12.22562789916992</v>
       </c>
       <c r="I317" t="n">
         <v>-65.05476353360359</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>18.34503412246704</v>
+        <v>17.86984205245972</v>
       </c>
       <c r="I318" t="n">
         <v>-39.40481939914356</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>19.2456841468811</v>
+        <v>19.15836334228516</v>
       </c>
       <c r="I319" t="n">
         <v>-25.84925872210696</v>
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>20.04587650299072</v>
+        <v>19.93322372436523</v>
       </c>
       <c r="I320" t="n">
         <v>-19.65642812635976</v>
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>21.4688777923584</v>
+        <v>20.81930637359619</v>
       </c>
       <c r="I321" t="n">
         <v>-15.05214905159302</v>
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>25.77053308486938</v>
+        <v>25.32085180282593</v>
       </c>
       <c r="I322" t="n">
         <v>-10.98981215791237</v>
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>56.52165412902832</v>
+        <v>68.85194778442383</v>
       </c>
       <c r="I323" t="n">
         <v>-9.57946628548806</v>
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>17.2889232635498</v>
+        <v>16.89457893371582</v>
       </c>
       <c r="I324" t="n">
         <v>-89.19804935424524</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>18.01154613494873</v>
+        <v>18.20226907730103</v>
       </c>
       <c r="I325" t="n">
         <v>-40.28536243519115</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>19.00261640548706</v>
+        <v>19.09404993057251</v>
       </c>
       <c r="I326" t="n">
         <v>-26.93639427779717</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>19.85299587249756</v>
+        <v>19.82009410858154</v>
       </c>
       <c r="I327" t="n">
         <v>-19.90456904594567</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>20.96664905548096</v>
+        <v>21.04568481445312</v>
       </c>
       <c r="I328" t="n">
         <v>-15.45422482946321</v>
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>24.84197616577148</v>
+        <v>27.05837488174438</v>
       </c>
       <c r="I329" t="n">
         <v>-11.02515584972863</v>
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>40.56787490844727</v>
+        <v>150.8171558380127</v>
       </c>
       <c r="I330" t="n">
         <v>-7.98861066284645</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>15.88344573974609</v>
+        <v>16.81041717529297</v>
       </c>
       <c r="I331" t="n">
         <v>-56.01936716241615</v>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>17.17072725296021</v>
+        <v>17.64317750930786</v>
       </c>
       <c r="I332" t="n">
         <v>-35.45746764471953</v>
@@ -13997,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>18.46516132354736</v>
+        <v>18.86731386184692</v>
       </c>
       <c r="I333" t="n">
         <v>-24.90615307415656</v>
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>19.31726932525635</v>
+        <v>19.508957862854</v>
       </c>
       <c r="I334" t="n">
         <v>-18.93786521716053</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>20.55060863494873</v>
+        <v>20.42257785797119</v>
       </c>
       <c r="I335" t="n">
         <v>-13.85705238936638</v>
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>25.93215703964233</v>
+        <v>22.94111251831055</v>
       </c>
       <c r="I336" t="n">
         <v>-10.1663849504844</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>572828.8283348083</v>
+        <v>108.3147525787354</v>
       </c>
       <c r="I337" t="n">
         <v>-3.123097089004272</v>
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>2.988338470458984</v>
+        <v>2.956867218017578</v>
       </c>
       <c r="I338" t="n">
         <v>-36.17507147065015</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>3.95125150680542</v>
+        <v>2.988576889038086</v>
       </c>
       <c r="I339" t="n">
         <v>-22.33150088397609</v>
@@ -14285,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>3.989696502685547</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="I340" t="n">
         <v>-10.67251947172889</v>
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>4.981040954589844</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I341" t="n">
         <v>-8.141834670385995</v>
@@ -14365,7 +14365,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>5.958855152130127</v>
+        <v>4.387140274047852</v>
       </c>
       <c r="I342" t="n">
         <v>-6.626887217316474</v>
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>7.230591773986803</v>
+        <v>6.450664997100825</v>
       </c>
       <c r="I343" t="n">
         <v>-4.961365363494156</v>
@@ -14445,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>11.96956634521484</v>
+        <v>12.96544075012207</v>
       </c>
       <c r="I344" t="n">
         <v>-3.181320530181872</v>
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>3.943443298339844</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>-45.52871382558996</v>
@@ -14529,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>3.988242149353027</v>
+        <v>2.98762321472168</v>
       </c>
       <c r="I346" t="n">
         <v>-35.33598470555958</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>4.025578498840332</v>
+        <v>2.993106842041016</v>
       </c>
       <c r="I347" t="n">
         <v>-24.67573366176961</v>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>4.987478256225586</v>
+        <v>3.988265991210938</v>
       </c>
       <c r="I348" t="n">
         <v>-19.4458298354025</v>
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>5.983173847198486</v>
+        <v>4.02224063873291</v>
       </c>
       <c r="I349" t="n">
         <v>-14.85770047629924</v>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>7.943928241729736</v>
+        <v>5.041897296905513</v>
       </c>
       <c r="I350" t="n">
         <v>-10.9891064326133</v>
@@ -14729,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>12.96544075012207</v>
+        <v>18.33844184875488</v>
       </c>
       <c r="I351" t="n">
         <v>-7.167956638966913</v>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>3.454685211181641</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>-64.40139920194096</v>
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>3.98561954498291</v>
+        <v>2.989280223846436</v>
       </c>
       <c r="I353" t="n">
         <v>-44.93196285813087</v>
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>3.990352153778076</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="I354" t="n">
         <v>-28.72195453426284</v>
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>4.987001419067383</v>
+        <v>3.988862037658691</v>
       </c>
       <c r="I355" t="n">
         <v>-20.86023408198391</v>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>5.981087684631348</v>
+        <v>4.002511501312256</v>
       </c>
       <c r="I356" t="n">
         <v>-17.24177128282749</v>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>7.978582382202148</v>
+        <v>5.009829998016357</v>
       </c>
       <c r="I357" t="n">
         <v>-12.09288258958238</v>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>10.9708309173584</v>
+        <v>7.02667236328125</v>
       </c>
       <c r="I358" t="n">
         <v>-9.579119386707687</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>3.952503204345703</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>-80.59521829799431</v>
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>3.987288475036621</v>
+        <v>2.987384796142578</v>
       </c>
       <c r="I360" t="n">
         <v>-40.81316661446084</v>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>4.949331283569336</v>
+        <v>2.992630004882812</v>
       </c>
       <c r="I361" t="n">
         <v>-24.55360878730608</v>
@@ -15177,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>4.98807430267334</v>
+        <v>3.986954689025879</v>
       </c>
       <c r="I362" t="n">
         <v>-18.09314021606095</v>
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>5.984067916870117</v>
+        <v>4.02522087097168</v>
       </c>
       <c r="I363" t="n">
         <v>-12.82572644746412</v>
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>6.988072395324707</v>
+        <v>6.011652946472168</v>
       </c>
       <c r="I364" t="n">
         <v>-8.861786278335309</v>
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>9.299278259277344</v>
+        <v>24.91879463195801</v>
       </c>
       <c r="I365" t="n">
         <v>-2.13557309428383</v>
@@ -15341,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>2.989053726196289</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>-30.40132612584588</v>
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>3.984200954437256</v>
+        <v>2.989041805267334</v>
       </c>
       <c r="I367" t="n">
         <v>-17.00990368325762</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>3.989696502685547</v>
+        <v>2.995133399963379</v>
       </c>
       <c r="I368" t="n">
         <v>-10.79730769522136</v>
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>4.951953887939453</v>
+        <v>3.989696502685547</v>
       </c>
       <c r="I369" t="n">
         <v>-8.811205799682897</v>
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>5.006074905395508</v>
+        <v>4.959344863891602</v>
       </c>
       <c r="I370" t="n">
         <v>-6.761410231047934</v>
@@ -15541,7 +15541,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>6.985926628112793</v>
+        <v>8.855485916137695</v>
       </c>
       <c r="I371" t="n">
         <v>-4.685592921636593</v>
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>12.49980926513672</v>
+        <v>38.86270523071289</v>
       </c>
       <c r="I372" t="n">
         <v>-2.727180357512142</v>
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>2.985954284667969</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>-65.05476353360359</v>
@@ -15665,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>3.985631465911865</v>
+        <v>2.984213829040527</v>
       </c>
       <c r="I374" t="n">
         <v>-39.40481939914356</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>3.998517990112305</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="I375" t="n">
         <v>-25.84925872210696</v>
@@ -15745,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>4.988670349121094</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I376" t="n">
         <v>-19.65642812635976</v>
@@ -15785,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>5.98454475402832</v>
+        <v>4.972755908966064</v>
       </c>
       <c r="I377" t="n">
         <v>-15.05214905159302</v>
@@ -15825,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>8.008623123168945</v>
+        <v>9.363436698913555</v>
       </c>
       <c r="I378" t="n">
         <v>-10.98981215791237</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>16.39413833618164</v>
+        <v>101.5253067016602</v>
       </c>
       <c r="I379" t="n">
         <v>-9.57946628548806</v>
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>3.952264785766602</v>
+        <v>2.938508987426758</v>
       </c>
       <c r="I380" t="n">
         <v>-89.19804935424524</v>
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>3.985881805419922</v>
+        <v>2.99142599105835</v>
       </c>
       <c r="I381" t="n">
         <v>-40.28536243519115</v>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>3.990769386291504</v>
+        <v>3.950834274291992</v>
       </c>
       <c r="I382" t="n">
         <v>-26.93639427779717</v>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>4.987120628356934</v>
+        <v>3.992319107055664</v>
       </c>
       <c r="I383" t="n">
         <v>-19.90456904594567</v>
@@ -16069,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>5.982935428619385</v>
+        <v>5.521893501281738</v>
       </c>
       <c r="I384" t="n">
         <v>-15.45422482946321</v>
@@ -16109,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>7.940781116485596</v>
+        <v>10.57091951370238</v>
       </c>
       <c r="I385" t="n">
         <v>-11.02515584972863</v>
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>21.95334434509277</v>
+        <v>433.4487915039062</v>
       </c>
       <c r="I386" t="n">
         <v>-7.98861066284645</v>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>2.99382209777832</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>-56.01936716241615</v>
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>3.986120223999023</v>
+        <v>2.989983558654785</v>
       </c>
       <c r="I388" t="n">
         <v>-35.45746764471953</v>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>3.992438316345215</v>
+        <v>2.994298934936523</v>
       </c>
       <c r="I389" t="n">
         <v>-24.90615307415656</v>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>4.98664379119873</v>
+        <v>3.989577293395996</v>
       </c>
       <c r="I390" t="n">
         <v>-18.93786521716053</v>
@@ -16353,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>5.984663963317871</v>
+        <v>4.975438117980957</v>
       </c>
       <c r="I391" t="n">
         <v>-13.85705238936638</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>7.005631923675537</v>
+        <v>8.866131305694578</v>
       </c>
       <c r="I392" t="n">
         <v>-10.1663849504844</v>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>404.9632549285889</v>
+        <v>28.98359298706055</v>
       </c>
       <c r="I393" t="n">
         <v>-3.123097089004272</v>
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>4.985809326171875</v>
+        <v>4.530191421508789</v>
       </c>
       <c r="I394" t="n">
         <v>-36.17507147065015</v>
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>5.898547172546388</v>
+        <v>4.985570907592773</v>
       </c>
       <c r="I395" t="n">
         <v>-22.33150088397609</v>
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>6.01118803024292</v>
+        <v>5.978405475616455</v>
       </c>
       <c r="I396" t="n">
         <v>-10.67251947172889</v>
@@ -16601,7 +16601,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>7.959961891174316</v>
+        <v>6.698489189147949</v>
       </c>
       <c r="I397" t="n">
         <v>-8.141834670385995</v>
@@ -16641,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>8.975744247436523</v>
+        <v>7.945895195007324</v>
       </c>
       <c r="I398" t="n">
         <v>-6.626887217316474</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>12.81623840332031</v>
+        <v>13.00840377807617</v>
       </c>
       <c r="I399" t="n">
         <v>-4.961365363494156</v>
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>18.51844787597656</v>
+        <v>23.8797664642334</v>
       </c>
       <c r="I400" t="n">
         <v>-3.181320530181872</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>5.990028381347656</v>
+        <v>4.985809326171875</v>
       </c>
       <c r="I401" t="n">
         <v>-45.52871382558996</v>
@@ -16805,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>8.976924419403076</v>
+        <v>6.255710124969482</v>
       </c>
       <c r="I402" t="n">
         <v>-35.33598470555958</v>
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>10.97077131271362</v>
+        <v>7.973730564117432</v>
       </c>
       <c r="I403" t="n">
         <v>-24.67573366176961</v>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>12.96651363372803</v>
+        <v>8.974909782409668</v>
       </c>
       <c r="I404" t="n">
         <v>-19.4458298354025</v>
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>14.961838722229</v>
+        <v>9.970426559448242</v>
       </c>
       <c r="I405" t="n">
         <v>-14.85770047629924</v>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>19.96554136276244</v>
+        <v>10.99873781204224</v>
       </c>
       <c r="I406" t="n">
         <v>-10.9891064326133</v>
@@ -17005,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>56.84661865234375</v>
+        <v>16.9527530670166</v>
       </c>
       <c r="I407" t="n">
         <v>-7.167956638966913</v>
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>5.983829498291016</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>-64.40139920194096</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>6.981372833251953</v>
+        <v>5.948531627655029</v>
       </c>
       <c r="I409" t="n">
         <v>-44.93196285813087</v>
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>8.012115955352783</v>
+        <v>5.985438823699951</v>
       </c>
       <c r="I410" t="n">
         <v>-28.72195453426284</v>
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>9.008407592773438</v>
+        <v>6.981253623962402</v>
       </c>
       <c r="I411" t="n">
         <v>-20.86023408198391</v>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>10.95199584960938</v>
+        <v>7.978975772857666</v>
       </c>
       <c r="I412" t="n">
         <v>-17.24177128282749</v>
@@ -17249,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>13.0484104156494</v>
+        <v>8.992075920104979</v>
       </c>
       <c r="I413" t="n">
         <v>-12.09288258958238</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>17.95268058776855</v>
+        <v>21.92068099975586</v>
       </c>
       <c r="I414" t="n">
         <v>-9.579119386707687</v>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>4.986286163330078</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>-80.59521829799431</v>
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>5.948746204376221</v>
+        <v>4.951560497283936</v>
       </c>
       <c r="I416" t="n">
         <v>-40.81316661446084</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>6.977856159210205</v>
+        <v>5.020081996917725</v>
       </c>
       <c r="I417" t="n">
         <v>-24.55360878730608</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>7.977724075317383</v>
+        <v>6.016254425048828</v>
       </c>
       <c r="I418" t="n">
         <v>-18.09314021606095</v>
@@ -17493,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>8.974850177764893</v>
+        <v>7.018625736236572</v>
       </c>
       <c r="I419" t="n">
         <v>-12.82572644746412</v>
@@ -17533,7 +17533,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>9.999608993530273</v>
+        <v>12.39045858383178</v>
       </c>
       <c r="I420" t="n">
         <v>-8.861786278335309</v>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>19.97661590576172</v>
+        <v>16.07632637023926</v>
       </c>
       <c r="I421" t="n">
         <v>-2.13557309428383</v>
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>4.98199462890625</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>-30.40132612584588</v>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>5.981922149658203</v>
+        <v>4.98579740524292</v>
       </c>
       <c r="I423" t="n">
         <v>-17.00990368325762</v>
@@ -17697,7 +17697,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>6.980359554290771</v>
+        <v>5.982577800750732</v>
       </c>
       <c r="I424" t="n">
         <v>-10.79730769522136</v>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>7.977008819580078</v>
+        <v>6.905317306518555</v>
       </c>
       <c r="I425" t="n">
         <v>-8.811205799682897</v>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>8.975982666015625</v>
+        <v>7.017433643341064</v>
       </c>
       <c r="I426" t="n">
         <v>-6.761410231047934</v>
@@ -17817,7 +17817,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>10.97061634063721</v>
+        <v>11.69289350509643</v>
       </c>
       <c r="I427" t="n">
         <v>-4.685592921636593</v>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>15.9604549407959</v>
+        <v>25.92921257019043</v>
       </c>
       <c r="I428" t="n">
         <v>-2.727180357512142</v>
@@ -17901,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>6.981372833251953</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>-65.05476353360359</v>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>8.979177474975586</v>
+        <v>6.975126266479492</v>
       </c>
       <c r="I430" t="n">
         <v>-39.40481939914356</v>
@@ -17981,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>10.97077131271362</v>
+        <v>7.978677749633789</v>
       </c>
       <c r="I431" t="n">
         <v>-25.84925872210696</v>
@@ -18021,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>12.96520233154297</v>
+        <v>9.102702140808105</v>
       </c>
       <c r="I432" t="n">
         <v>-19.65642812635976</v>
@@ -18061,7 +18061,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>14.95522260665894</v>
+        <v>10.94627380371094</v>
       </c>
       <c r="I433" t="n">
         <v>-15.05214905159302</v>
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>19.89729404449463</v>
+        <v>16.40554666519164</v>
       </c>
       <c r="I434" t="n">
         <v>-10.98981215791237</v>
@@ -18141,7 +18141,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>47.16110229492188</v>
+        <v>45.58753967285156</v>
       </c>
       <c r="I435" t="n">
         <v>-9.57946628548806</v>
@@ -18185,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>5.983829498291016</v>
+        <v>4.995107650756836</v>
       </c>
       <c r="I436" t="n">
         <v>-89.19804935424524</v>
@@ -18225,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>6.982517242431641</v>
+        <v>5.981671810150146</v>
       </c>
       <c r="I437" t="n">
         <v>-40.28536243519115</v>
@@ -18265,7 +18265,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>8.975982666015625</v>
+        <v>6.946563720703125</v>
       </c>
       <c r="I438" t="n">
         <v>-26.93639427779717</v>
@@ -18305,7 +18305,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>9.979724884033203</v>
+        <v>7.019639015197754</v>
       </c>
       <c r="I439" t="n">
         <v>-19.90456904594567</v>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>11.57188415527344</v>
+        <v>8.558332920074463</v>
       </c>
       <c r="I440" t="n">
         <v>-15.45422482946321</v>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>16.58161878585814</v>
+        <v>14.35797214508055</v>
       </c>
       <c r="I441" t="n">
         <v>-11.02515584972863</v>
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>53.0555248260498</v>
+        <v>71.2742805480957</v>
       </c>
       <c r="I442" t="n">
         <v>-7.98861066284645</v>
@@ -18469,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>4.983901977539062</v>
+        <v>3.984689712524414</v>
       </c>
       <c r="I443" t="n">
         <v>-56.01936716241615</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>5.984055995941162</v>
+        <v>4.986047744750977</v>
       </c>
       <c r="I444" t="n">
         <v>-35.45746764471953</v>
@@ -18549,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>6.981611251831055</v>
+        <v>5.976021289825439</v>
       </c>
       <c r="I445" t="n">
         <v>-24.90615307415656</v>
@@ -18589,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>8.01384449005127</v>
+        <v>6.972551345825195</v>
       </c>
       <c r="I446" t="n">
         <v>-18.93786521716053</v>
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>9.948432445526123</v>
+        <v>8.050203323364258</v>
       </c>
       <c r="I447" t="n">
         <v>-13.85705238936638</v>
@@ -18669,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>16.41744375228882</v>
+        <v>13.96695375442505</v>
       </c>
       <c r="I448" t="n">
         <v>-10.1663849504844</v>
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>119.621753692627</v>
+        <v>24.76739883422852</v>
       </c>
       <c r="I449" t="n">
         <v>-3.123097089004272</v>
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>83.56809616088867</v>
+        <v>33.75887870788574</v>
       </c>
       <c r="I450" t="n">
         <v>-36.17507147065015</v>
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>86.53656244277954</v>
+        <v>35.45587062835693</v>
       </c>
       <c r="I451" t="n">
         <v>-22.33150088397609</v>
@@ -18837,7 +18837,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>89.79851007461548</v>
+        <v>36.89777851104736</v>
       </c>
       <c r="I452" t="n">
         <v>-10.67251947172889</v>
@@ -18877,7 +18877,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>93.76645088195801</v>
+        <v>37.92357444763184</v>
       </c>
       <c r="I453" t="n">
         <v>-8.141834670385995</v>
@@ -18917,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>100.9950637817383</v>
+        <v>43.89822483062744</v>
       </c>
       <c r="I454" t="n">
         <v>-6.626887217316474</v>
@@ -18957,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>129.7235131263733</v>
+        <v>85.97204685211182</v>
       </c>
       <c r="I455" t="n">
         <v>-4.961365363494156</v>
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>270.2767848968506</v>
+        <v>121.4332580566406</v>
       </c>
       <c r="I456" t="n">
         <v>-3.181320530181872</v>
@@ -19041,7 +19041,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>81.84647560119629</v>
+        <v>34.68751907348633</v>
       </c>
       <c r="I457" t="n">
         <v>-45.52871382558996</v>
@@ -19081,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>84.77852344512939</v>
+        <v>35.35529375076294</v>
       </c>
       <c r="I458" t="n">
         <v>-35.33598470555958</v>
@@ -19121,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>89.13946151733398</v>
+        <v>35.90691089630127</v>
       </c>
       <c r="I459" t="n">
         <v>-24.67573366176961</v>
@@ -19161,7 +19161,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>92.67961978912354</v>
+        <v>36.90576553344727</v>
       </c>
       <c r="I460" t="n">
         <v>-19.4458298354025</v>
@@ -19201,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>98.78575801849365</v>
+        <v>37.90318965911865</v>
       </c>
       <c r="I461" t="n">
         <v>-14.85770047629924</v>
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>116.9057488441467</v>
+        <v>42.93662309646605</v>
       </c>
       <c r="I462" t="n">
         <v>-10.9891064326133</v>
@@ -19281,7 +19281,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>277.6637077331543</v>
+        <v>59.65662002563477</v>
       </c>
       <c r="I463" t="n">
         <v>-7.167956638966913</v>
@@ -19325,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>80.74712753295898</v>
+        <v>21.68107032775879</v>
       </c>
       <c r="I464" t="n">
         <v>-64.40139920194096</v>
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>82.78369903564453</v>
+        <v>34.90685224533081</v>
       </c>
       <c r="I465" t="n">
         <v>-44.93196285813087</v>
@@ -19405,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>86.33893728256226</v>
+        <v>35.90714931488037</v>
       </c>
       <c r="I466" t="n">
         <v>-28.72195453426284</v>
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>89.53857421875</v>
+        <v>36.90183162689209</v>
       </c>
       <c r="I467" t="n">
         <v>-20.86023408198391</v>
@@ -19485,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>98.27101230621338</v>
+        <v>37.94640302658081</v>
       </c>
       <c r="I468" t="n">
         <v>-17.24177128282749</v>
@@ -19525,7 +19525,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>127.7593374252319</v>
+        <v>40.9001350402832</v>
       </c>
       <c r="I469" t="n">
         <v>-12.09288258958238</v>
@@ -19565,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>190.8998489379883</v>
+        <v>65.38796424865723</v>
       </c>
       <c r="I470" t="n">
         <v>-9.579119386707687</v>
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>82.77106285095215</v>
+        <v>28.78355979919434</v>
       </c>
       <c r="I471" t="n">
         <v>-80.59521829799431</v>
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>83.77737998962402</v>
+        <v>34.90564823150635</v>
       </c>
       <c r="I472" t="n">
         <v>-40.81316661446084</v>
@@ -19689,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>86.72648668289185</v>
+        <v>35.9041690826416</v>
       </c>
       <c r="I473" t="n">
         <v>-24.55360878730608</v>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>89.72752094268799</v>
+        <v>36.92507743835449</v>
       </c>
       <c r="I474" t="n">
         <v>-18.09314021606095</v>
@@ -19769,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>94.67095136642456</v>
+        <v>38.94597291946411</v>
       </c>
       <c r="I475" t="n">
         <v>-12.82572644746412</v>
@@ -19809,7 +19809,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>108.8247060775757</v>
+        <v>51.94526910781859</v>
       </c>
       <c r="I476" t="n">
         <v>-8.861786278335309</v>
@@ -19849,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>139.5914554595947</v>
+        <v>75.18720626831055</v>
       </c>
       <c r="I477" t="n">
         <v>-2.13557309428383</v>
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>78.78518104553223</v>
+        <v>23.21624755859375</v>
       </c>
       <c r="I478" t="n">
         <v>-30.40132612584588</v>
@@ -19933,7 +19933,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>83.77526998519897</v>
+        <v>35.20554304122925</v>
       </c>
       <c r="I479" t="n">
         <v>-17.00990368325762</v>
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>86.76838874816895</v>
+        <v>35.90941429138184</v>
       </c>
       <c r="I480" t="n">
         <v>-10.79730769522136</v>
@@ -20013,7 +20013,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>89.72322940826416</v>
+        <v>37.24265098571777</v>
       </c>
       <c r="I481" t="n">
         <v>-8.811205799682897</v>
@@ -20053,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>94.32828426361084</v>
+        <v>39.44301605224609</v>
       </c>
       <c r="I482" t="n">
         <v>-6.761410231047934</v>
@@ -20093,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>105.5573463439941</v>
+        <v>53.92860174179074</v>
       </c>
       <c r="I483" t="n">
         <v>-4.685592921636593</v>
@@ -20133,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>130.6521892547607</v>
+        <v>138.176441192627</v>
       </c>
       <c r="I484" t="n">
         <v>-2.727180357512142</v>
@@ -20177,7 +20177,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>81.20536804199219</v>
+        <v>23.46372604370117</v>
       </c>
       <c r="I485" t="n">
         <v>-65.05476353360359</v>
@@ -20217,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>82.7789306640625</v>
+        <v>34.87179279327393</v>
       </c>
       <c r="I486" t="n">
         <v>-39.40481939914356</v>
@@ -20257,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>86.1968994140625</v>
+        <v>35.9036922454834</v>
       </c>
       <c r="I487" t="n">
         <v>-25.84925872210696</v>
@@ -20297,7 +20297,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>89.75589275360107</v>
+        <v>36.90123558044434</v>
       </c>
       <c r="I488" t="n">
         <v>-19.65642812635976</v>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>94.76077556610107</v>
+        <v>38.52421045303345</v>
       </c>
       <c r="I489" t="n">
         <v>-15.05214905159302</v>
@@ -20377,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>101.7934679985046</v>
+        <v>44.87735033035278</v>
       </c>
       <c r="I490" t="n">
         <v>-10.98981215791237</v>
@@ -20417,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>199.2058753967285</v>
+        <v>52.08659172058105</v>
       </c>
       <c r="I491" t="n">
         <v>-9.57946628548806</v>
@@ -20461,7 +20461,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>81.7875862121582</v>
+        <v>33.90860557556152</v>
       </c>
       <c r="I492" t="n">
         <v>-89.19804935424524</v>
@@ -20501,7 +20501,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>84.43151712417603</v>
+        <v>34.90313291549683</v>
       </c>
       <c r="I493" t="n">
         <v>-40.28536243519115</v>
@@ -20541,7 +20541,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>87.76396512985229</v>
+        <v>35.9039306640625</v>
       </c>
       <c r="I494" t="n">
         <v>-26.93639427779717</v>
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>90.72458744049072</v>
+        <v>36.90218925476074</v>
       </c>
       <c r="I495" t="n">
         <v>-19.90456904594567</v>
@@ -20621,7 +20621,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>95.06779909133911</v>
+        <v>38.87176513671875</v>
       </c>
       <c r="I496" t="n">
         <v>-15.45422482946321</v>
@@ -20661,7 +20661,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>106.5051078796387</v>
+        <v>45.5664038658142</v>
       </c>
       <c r="I497" t="n">
         <v>-11.02515584972863</v>
@@ -20701,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>128.1576156616211</v>
+        <v>60.32276153564453</v>
       </c>
       <c r="I498" t="n">
         <v>-7.98861066284645</v>
@@ -20745,7 +20745,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>80.79385757446289</v>
+        <v>33.90932083129883</v>
       </c>
       <c r="I499" t="n">
         <v>-56.01936716241615</v>
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>84.71024036407471</v>
+        <v>34.90638732910156</v>
       </c>
       <c r="I500" t="n">
         <v>-35.45746764471953</v>
@@ -20825,7 +20825,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>86.76826953887939</v>
+        <v>35.9041690826416</v>
       </c>
       <c r="I501" t="n">
         <v>-24.90615307415656</v>
@@ -20865,7 +20865,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>89.73073959350586</v>
+        <v>36.90111637115479</v>
       </c>
       <c r="I502" t="n">
         <v>-18.93786521716053</v>
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>92.84353256225586</v>
+        <v>37.93531656265259</v>
       </c>
       <c r="I503" t="n">
         <v>-13.85705238936638</v>
@@ -20945,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>104.3910384178162</v>
+        <v>44.37005519866941</v>
       </c>
       <c r="I504" t="n">
         <v>-10.1663849504844</v>
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>117.1541213989258</v>
+        <v>77.11482048034668</v>
       </c>
       <c r="I505" t="n">
         <v>-3.123097089004272</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>4.983663558959961</v>
+        <v>2.983808517456055</v>
       </c>
       <c r="I506" t="n">
         <v>-36.17507147065015</v>
@@ -21073,7 +21073,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>5.983340740203857</v>
+        <v>3.971588611602783</v>
       </c>
       <c r="I507" t="n">
         <v>-22.33150088397609</v>
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>6.978690624237061</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I508" t="n">
         <v>-10.67251947172889</v>
@@ -21153,7 +21153,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>7.977843284606934</v>
+        <v>4.984736442565918</v>
       </c>
       <c r="I509" t="n">
         <v>-8.141834670385995</v>
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>8.976221084594727</v>
+        <v>5.984604358673096</v>
       </c>
       <c r="I510" t="n">
         <v>-6.626887217316474</v>
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>11.0073685646057</v>
+        <v>9.967136383056641</v>
       </c>
       <c r="I511" t="n">
         <v>-4.961365363494156</v>
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>18.95022392272949</v>
+        <v>13.45682144165039</v>
       </c>
       <c r="I512" t="n">
         <v>-3.181320530181872</v>
@@ -21317,7 +21317,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>4.982471466064453</v>
+        <v>2.982616424560547</v>
       </c>
       <c r="I513" t="n">
         <v>-45.52871382558996</v>
@@ -21357,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>5.903005599975587</v>
+        <v>2.992129325866699</v>
       </c>
       <c r="I514" t="n">
         <v>-35.33598470555958</v>
@@ -21397,7 +21397,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>6.02269172668457</v>
+        <v>3.988444805145264</v>
       </c>
       <c r="I515" t="n">
         <v>-24.67573366176961</v>
@@ -21437,7 +21437,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>7.020711898803711</v>
+        <v>3.993511199951172</v>
       </c>
       <c r="I516" t="n">
         <v>-19.4458298354025</v>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>8.941829204559326</v>
+        <v>4.987120628356934</v>
       </c>
       <c r="I517" t="n">
         <v>-14.85770047629924</v>
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>10.93709468841553</v>
+        <v>5.988597869873047</v>
       </c>
       <c r="I518" t="n">
         <v>-10.9891064326133</v>
@@ -21557,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>15.95783233642578</v>
+        <v>9.056568145751953</v>
       </c>
       <c r="I519" t="n">
         <v>-7.167956638966913</v>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>4.980802536010742</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>-64.40139920194096</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>5.975854396820068</v>
+        <v>3.955411911010742</v>
       </c>
       <c r="I521" t="n">
         <v>-44.93196285813087</v>
@@ -21681,7 +21681,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>6.020426750183105</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="I522" t="n">
         <v>-28.72195453426284</v>
@@ -21721,7 +21721,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>7.00831413269043</v>
+        <v>4.026293754577637</v>
       </c>
       <c r="I523" t="n">
         <v>-20.86023408198391</v>
@@ -21761,7 +21761,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>8.013784885406494</v>
+        <v>4.99492883682251</v>
       </c>
       <c r="I524" t="n">
         <v>-17.24177128282749</v>
@@ -21801,7 +21801,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>11.02175712585447</v>
+        <v>6.087517738342272</v>
       </c>
       <c r="I525" t="n">
         <v>-12.09288258958238</v>
@@ -21841,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>20.38097381591797</v>
+        <v>15.65980911254883</v>
       </c>
       <c r="I526" t="n">
         <v>-9.579119386707687</v>
@@ -21885,7 +21885,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>4.983425140380859</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>-80.59521829799431</v>
@@ -21925,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>4.986751079559326</v>
+        <v>2.992796897888184</v>
       </c>
       <c r="I528" t="n">
         <v>-40.81316661446084</v>
@@ -21965,7 +21965,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>5.984067916870117</v>
+        <v>3.988921642303467</v>
       </c>
       <c r="I529" t="n">
         <v>-24.55360878730608</v>
@@ -22005,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>6.981134414672852</v>
+        <v>4.024863243103027</v>
       </c>
       <c r="I530" t="n">
         <v>-18.09314021606095</v>
@@ -22045,7 +22045,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>7.978677749633789</v>
+        <v>5.022346973419189</v>
       </c>
       <c r="I531" t="n">
         <v>-12.82572644746412</v>
@@ -22085,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>9.003722667694092</v>
+        <v>6.952548027038574</v>
       </c>
       <c r="I532" t="n">
         <v>-8.861786278335309</v>
@@ -22125,7 +22125,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>15.68722724914551</v>
+        <v>22.00603485107422</v>
       </c>
       <c r="I533" t="n">
         <v>-2.13557309428383</v>
@@ -22169,7 +22169,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>4.984140396118164</v>
+        <v>2.986907958984375</v>
       </c>
       <c r="I534" t="n">
         <v>-30.40132612584588</v>
@@ -22209,7 +22209,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>5.961060523986816</v>
+        <v>3.980469703674316</v>
       </c>
       <c r="I535" t="n">
         <v>-17.00990368325762</v>
@@ -22249,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>5.988419055938721</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I536" t="n">
         <v>-10.79730769522136</v>
@@ -22289,7 +22289,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>6.990313529968262</v>
+        <v>4.986047744750977</v>
       </c>
       <c r="I537" t="n">
         <v>-8.811205799682897</v>
@@ -22329,7 +22329,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>8.247673511505127</v>
+        <v>5.771994590759277</v>
       </c>
       <c r="I538" t="n">
         <v>-6.761410231047934</v>
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>9.990835189819336</v>
+        <v>7.523369789123527</v>
       </c>
       <c r="I539" t="n">
         <v>-4.685592921636593</v>
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>16.14809036254883</v>
+        <v>15.06590843200684</v>
       </c>
       <c r="I540" t="n">
         <v>-2.727180357512142</v>
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>4.984378814697266</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>-65.05476353360359</v>
@@ -22493,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>4.98814582824707</v>
+        <v>3.000056743621826</v>
       </c>
       <c r="I542" t="n">
         <v>-39.40481939914356</v>
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>5.984306335449219</v>
+        <v>3.988981246948242</v>
       </c>
       <c r="I543" t="n">
         <v>-25.84925872210696</v>
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>6.982326507568359</v>
+        <v>4.006862640380859</v>
       </c>
       <c r="I544" t="n">
         <v>-19.65642812635976</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>7.979214191436768</v>
+        <v>5.021452903747559</v>
       </c>
       <c r="I545" t="n">
         <v>-15.05214905159302</v>
@@ -22653,7 +22653,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>9.976863861083984</v>
+        <v>7.031917572021467</v>
       </c>
       <c r="I546" t="n">
         <v>-10.98981215791237</v>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>18.67365837097168</v>
+        <v>28.8398265838623</v>
       </c>
       <c r="I547" t="n">
         <v>-9.57946628548806</v>
@@ -22737,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>4.984378814697266</v>
+        <v>2.987861633300781</v>
       </c>
       <c r="I548" t="n">
         <v>-89.19804935424524</v>
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>5.976963043212891</v>
+        <v>3.983795642852783</v>
       </c>
       <c r="I549" t="n">
         <v>-40.28536243519115</v>
@@ -22817,7 +22817,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>6.841719150543213</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="I550" t="n">
         <v>-26.93639427779717</v>
@@ -22857,7 +22857,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>7.532358169555664</v>
+        <v>4.951238632202148</v>
       </c>
       <c r="I551" t="n">
         <v>-19.90456904594567</v>
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>8.015453815460205</v>
+        <v>5.024969577789307</v>
       </c>
       <c r="I552" t="n">
         <v>-15.45422482946321</v>
@@ -22937,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>11.14870309829712</v>
+        <v>7.531583309173576</v>
       </c>
       <c r="I553" t="n">
         <v>-11.02515584972863</v>
@@ -22977,7 +22977,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>45.36008834838867</v>
+        <v>29.69241142272949</v>
       </c>
       <c r="I554" t="n">
         <v>-7.98861066284645</v>
@@ -23021,7 +23021,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>4.952192306518555</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>-56.01936716241615</v>
@@ -23061,7 +23061,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>4.986763000488281</v>
+        <v>3.029978275299072</v>
       </c>
       <c r="I556" t="n">
         <v>-35.45746764471953</v>
@@ -23101,7 +23101,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>5.984663963317871</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="I557" t="n">
         <v>-24.90615307415656</v>
@@ -23141,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>6.983160972595215</v>
+        <v>4.947900772094727</v>
       </c>
       <c r="I558" t="n">
         <v>-18.93786521716053</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>7.992923259735107</v>
+        <v>4.994392395019531</v>
       </c>
       <c r="I559" t="n">
         <v>-13.85705238936638</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>9.972906112670898</v>
+        <v>6.983804702758789</v>
       </c>
       <c r="I560" t="n">
         <v>-10.1663849504844</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>50.13394355773926</v>
+        <v>26.05342864990234</v>
       </c>
       <c r="I561" t="n">
         <v>-3.123097089004272</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>2.958059310913086</v>
+        <v>1.96075439453125</v>
       </c>
       <c r="I562" t="n">
         <v>-36.17507147065015</v>
@@ -23349,7 +23349,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>2.991676330566406</v>
+        <v>1.991498470306396</v>
       </c>
       <c r="I563" t="n">
         <v>-22.33150088397609</v>
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>3.984272480010986</v>
+        <v>2.736449241638184</v>
       </c>
       <c r="I564" t="n">
         <v>-10.67251947172889</v>
@@ -23429,7 +23429,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>3.99017333984375</v>
+        <v>2.992630004882812</v>
       </c>
       <c r="I565" t="n">
         <v>-8.141834670385995</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>4.987895488739014</v>
+        <v>3.962993621826172</v>
       </c>
       <c r="I566" t="n">
         <v>-6.626887217316474</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>6.112945079803451</v>
+        <v>5.185067653656003</v>
       </c>
       <c r="I567" t="n">
         <v>-4.961365363494156</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>10.97345352172852</v>
+        <v>7.977962493896484</v>
       </c>
       <c r="I568" t="n">
         <v>-3.181320530181872</v>
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>3.98564338684082</v>
+        <v>1.992225646972656</v>
       </c>
       <c r="I569" t="n">
         <v>-45.52871382558996</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>3.989219665527344</v>
+        <v>2.956092357635498</v>
       </c>
       <c r="I570" t="n">
         <v>-35.33598470555958</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>4.962146282196045</v>
+        <v>2.991437911987305</v>
       </c>
       <c r="I571" t="n">
         <v>-24.67573366176961</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>5.004763603210449</v>
+        <v>2.994298934936523</v>
       </c>
       <c r="I572" t="n">
         <v>-19.4458298354025</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>5.988895893096924</v>
+        <v>3.987133502960205</v>
       </c>
       <c r="I573" t="n">
         <v>-14.85770047629924</v>
@@ -23793,7 +23793,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>7.58919715881347</v>
+        <v>4.86246347427368</v>
       </c>
       <c r="I574" t="n">
         <v>-10.9891064326133</v>
@@ -23833,7 +23833,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>12.96615600585938</v>
+        <v>6.186008453369141</v>
       </c>
       <c r="I575" t="n">
         <v>-7.167956638966913</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>2.987861633300781</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>-64.40139920194096</v>
@@ -23917,7 +23917,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>3.952693939208984</v>
+        <v>1.99507474899292</v>
       </c>
       <c r="I577" t="n">
         <v>-44.93196285813087</v>
@@ -23957,7 +23957,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>3.988981246948242</v>
+        <v>2.990901470184326</v>
       </c>
       <c r="I578" t="n">
         <v>-28.72195453426284</v>
@@ -23997,7 +23997,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>4.968166351318359</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="I579" t="n">
         <v>-20.86023408198391</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>5.017340183258057</v>
+        <v>3.953814506530762</v>
       </c>
       <c r="I580" t="n">
         <v>-17.24177128282749</v>
@@ -24077,7 +24077,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>6.981658935546875</v>
+        <v>4.711568355560297</v>
       </c>
       <c r="I581" t="n">
         <v>-12.09288258958238</v>
@@ -24117,7 +24117,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>14.0683650970459</v>
+        <v>6.534576416015625</v>
       </c>
       <c r="I582" t="n">
         <v>-9.579119386707687</v>
@@ -24161,7 +24161,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>3.829240798950195</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>-80.59521829799431</v>
@@ -24201,7 +24201,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>3.985834121704102</v>
+        <v>2.957320213317871</v>
       </c>
       <c r="I584" t="n">
         <v>-40.81316661446084</v>
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>3.996610641479492</v>
+        <v>2.991914749145508</v>
       </c>
       <c r="I585" t="n">
         <v>-24.55360878730608</v>
@@ -24281,7 +24281,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>4.987597465515137</v>
+        <v>2.995133399963379</v>
       </c>
       <c r="I586" t="n">
         <v>-18.09314021606095</v>
@@ -24321,7 +24321,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>5.984306335449219</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="I587" t="n">
         <v>-12.82572644746412</v>
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>6.983375549316406</v>
+        <v>5.001509189605713</v>
       </c>
       <c r="I588" t="n">
         <v>-8.861786278335309</v>
@@ -24401,7 +24401,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>8.02922248840332</v>
+        <v>11.96622848510742</v>
       </c>
       <c r="I589" t="n">
         <v>-2.13557309428383</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>2.87175178527832</v>
+        <v>1.980304718017578</v>
       </c>
       <c r="I590" t="n">
         <v>-30.40132612584588</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>2.990949153900146</v>
+        <v>1.99124813079834</v>
       </c>
       <c r="I591" t="n">
         <v>-17.00990368325762</v>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>3.74293327331543</v>
+        <v>2.016544342041016</v>
       </c>
       <c r="I592" t="n">
         <v>-10.79730769522136</v>
@@ -24565,7 +24565,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>3.98862361907959</v>
+        <v>2.992510795593262</v>
       </c>
       <c r="I593" t="n">
         <v>-8.811205799682897</v>
@@ -24605,7 +24605,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>4.578590393066406</v>
+        <v>3.028213977813721</v>
       </c>
       <c r="I594" t="n">
         <v>-6.761410231047934</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>5.982422828674316</v>
+        <v>4.374980926513671</v>
       </c>
       <c r="I595" t="n">
         <v>-4.685592921636593</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>24.07217025756836</v>
+        <v>15.04158973693848</v>
       </c>
       <c r="I596" t="n">
         <v>-2.727180357512142</v>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>2.991676330566406</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>-65.05476353360359</v>
@@ -24769,7 +24769,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>3.986120223999023</v>
+        <v>1.994502544403076</v>
       </c>
       <c r="I598" t="n">
         <v>-39.40481939914356</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>3.992855548858643</v>
+        <v>2.992153167724609</v>
       </c>
       <c r="I599" t="n">
         <v>-25.84925872210696</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>4.987716674804688</v>
+        <v>3.017902374267578</v>
       </c>
       <c r="I600" t="n">
         <v>-19.65642812635976</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>5.985856056213379</v>
+        <v>4.024207592010498</v>
       </c>
       <c r="I601" t="n">
         <v>-15.05214905159302</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>9.025919437408445</v>
+        <v>9.334075450897213</v>
       </c>
       <c r="I602" t="n">
         <v>-10.98981215791237</v>
@@ -24969,7 +24969,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>54.70013618469238</v>
+        <v>29.74224090576172</v>
       </c>
       <c r="I603" t="n">
         <v>-9.57946628548806</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>2.921104431152344</v>
+        <v>1.992940902709961</v>
       </c>
       <c r="I604" t="n">
         <v>-89.19804935424524</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>2.995455265045166</v>
+        <v>1.995551586151123</v>
       </c>
       <c r="I605" t="n">
         <v>-40.28536243519115</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>3.989696502685547</v>
+        <v>2.991437911987305</v>
       </c>
       <c r="I606" t="n">
         <v>-26.93639427779717</v>
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>4.955410957336426</v>
+        <v>2.992630004882812</v>
       </c>
       <c r="I607" t="n">
         <v>-19.90456904594567</v>
@@ -25173,7 +25173,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>5.950033664703369</v>
+        <v>3.957748413085938</v>
       </c>
       <c r="I608" t="n">
         <v>-15.45422482946321</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>8.974337577819822</v>
+        <v>6.081068515777568</v>
       </c>
       <c r="I609" t="n">
         <v>-11.02515584972863</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>29.79063987731934</v>
+        <v>31.94737434387207</v>
       </c>
       <c r="I610" t="n">
         <v>-7.98861066284645</v>
@@ -25297,7 +25297,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>2.987861633300781</v>
+        <v>1.994609832763672</v>
       </c>
       <c r="I611" t="n">
         <v>-56.01936716241615</v>
@@ -25337,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>3.985154628753662</v>
+        <v>2.985084056854248</v>
       </c>
       <c r="I612" t="n">
         <v>-35.45746764471953</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>3.994107246398926</v>
+        <v>2.992153167724609</v>
       </c>
       <c r="I613" t="n">
         <v>-24.90615307415656</v>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>4.990100860595703</v>
+        <v>2.999544143676758</v>
       </c>
       <c r="I614" t="n">
         <v>-18.93786521716053</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>6.016790866851807</v>
+        <v>4.009783267974854</v>
       </c>
       <c r="I615" t="n">
         <v>-13.85705238936638</v>
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>11.03111505508422</v>
+        <v>9.114038944244383</v>
       </c>
       <c r="I616" t="n">
         <v>-10.1663849504844</v>
@@ -25537,7 +25537,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>43.27964782714844</v>
+        <v>17.77744293212891</v>
       </c>
       <c r="I617" t="n">
         <v>-3.123097089004272</v>
@@ -25665,7 +25665,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>21.38215303421021</v>
+        <v>21.41177654266357</v>
       </c>
       <c r="I620" t="n">
         <v>-10.67251947172889</v>
@@ -25705,7 +25705,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>24.31380748748779</v>
+        <v>25.21955966949463</v>
       </c>
       <c r="I621" t="n">
         <v>-8.141834670385995</v>
@@ -25745,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>28.35118770599365</v>
+        <v>30.01385927200317</v>
       </c>
       <c r="I622" t="n">
         <v>-6.626887217316474</v>
@@ -25785,7 +25785,7 @@
         <v>1</v>
       </c>
       <c r="H623" t="n">
-        <v>35.91305017471313</v>
+        <v>39.2873167991638</v>
       </c>
       <c r="I623" t="n">
         <v>-4.961365363494156</v>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="H624" t="n">
-        <v>1341.723680496216</v>
+        <v>4757.980346679688</v>
       </c>
       <c r="I624" t="n">
         <v>-3.181320530181872</v>
@@ -25869,7 +25869,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>17.92025566101074</v>
+        <v>17.94743537902832</v>
       </c>
       <c r="I625" t="n">
         <v>-45.52871382558996</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>19.50608491897583</v>
+        <v>19.93944644927979</v>
       </c>
       <c r="I626" t="n">
         <v>-35.33598470555958</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>21.25132083892822</v>
+        <v>20.95949649810791</v>
       </c>
       <c r="I627" t="n">
         <v>-24.67573366176961</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>23.71799945831299</v>
+        <v>22.45199680328369</v>
       </c>
       <c r="I628" t="n">
         <v>-19.4458298354025</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>25.9559154510498</v>
+        <v>23.93573522567749</v>
       </c>
       <c r="I629" t="n">
         <v>-14.85770047629924</v>
@@ -26069,7 +26069,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>31.91444873809814</v>
+        <v>26.96847915649413</v>
       </c>
       <c r="I630" t="n">
         <v>-10.9891064326133</v>
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>2326.582908630371</v>
+        <v>35.24875640869141</v>
       </c>
       <c r="I631" t="n">
         <v>-7.167956638966913</v>
@@ -26153,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>11.03448867797852</v>
+        <v>19.95110511779785</v>
       </c>
       <c r="I632" t="n">
         <v>-64.40139920194096</v>
@@ -26193,7 +26193,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>19.94729042053223</v>
+        <v>20.94284296035767</v>
       </c>
       <c r="I633" t="n">
         <v>-44.93196285813087</v>
@@ -26233,7 +26233,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>21.91764116287231</v>
+        <v>22.12631702423096</v>
       </c>
       <c r="I634" t="n">
         <v>-28.72195453426284</v>
@@ -26273,7 +26273,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>23.60200881958008</v>
+        <v>23.40555191040039</v>
       </c>
       <c r="I635" t="n">
         <v>-20.86023408198391</v>
@@ -26313,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>25.93052387237549</v>
+        <v>25.18182992935181</v>
       </c>
       <c r="I636" t="n">
         <v>-17.24177128282749</v>
@@ -26353,7 +26353,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>34.27543640136716</v>
+        <v>28.95183563232421</v>
       </c>
       <c r="I637" t="n">
         <v>-12.09288258958238</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>60.22930145263672</v>
+        <v>31.32295608520508</v>
       </c>
       <c r="I638" t="n">
         <v>-9.579119386707687</v>
@@ -26477,7 +26477,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>18.93763542175293</v>
+        <v>18.53841543197632</v>
       </c>
       <c r="I640" t="n">
         <v>-40.81316661446084</v>
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>20.94078063964844</v>
+        <v>20.90567350387573</v>
       </c>
       <c r="I641" t="n">
         <v>-24.55360878730608</v>
@@ -26557,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>22.940993309021</v>
+        <v>22.42183685302734</v>
       </c>
       <c r="I642" t="n">
         <v>-18.09314021606095</v>
@@ -26597,7 +26597,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>26.6382098197937</v>
+        <v>25.7306694984436</v>
       </c>
       <c r="I643" t="n">
         <v>-12.82572644746412</v>
@@ -26637,7 +26637,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>32.26538896560669</v>
+        <v>31.2174320220947</v>
       </c>
       <c r="I644" t="n">
         <v>-8.861786278335309</v>
@@ -26677,7 +26677,7 @@
         <v>1</v>
       </c>
       <c r="H645" t="n">
-        <v>45.83978652954102</v>
+        <v>53.71856689453125</v>
       </c>
       <c r="I645" t="n">
         <v>-2.13557309428383</v>
@@ -26801,7 +26801,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>22.93860912322998</v>
+        <v>22.59218692779541</v>
       </c>
       <c r="I648" t="n">
         <v>-10.79730769522136</v>
@@ -26841,7 +26841,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>24.941086769104</v>
+        <v>24.93190765380859</v>
       </c>
       <c r="I649" t="n">
         <v>-8.811205799682897</v>
@@ -26881,7 +26881,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>28.03486585617065</v>
+        <v>26.9438624382019</v>
       </c>
       <c r="I650" t="n">
         <v>-6.761410231047934</v>
@@ -26921,7 +26921,7 @@
         <v>1</v>
       </c>
       <c r="H651" t="n">
-        <v>34.90573167800903</v>
+        <v>31.92410469055175</v>
       </c>
       <c r="I651" t="n">
         <v>-4.685592921636593</v>
@@ -26961,7 +26961,7 @@
         <v>1</v>
       </c>
       <c r="H652" t="n">
-        <v>43.40887069702148</v>
+        <v>38.42496871948242</v>
       </c>
       <c r="I652" t="n">
         <v>-2.727180357512142</v>
@@ -27005,7 +27005,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>17.92597770690918</v>
+        <v>6.932735443115234</v>
       </c>
       <c r="I653" t="n">
         <v>-65.05476353360359</v>
@@ -27045,7 +27045,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>18.95089149475098</v>
+        <v>18.86261701583862</v>
       </c>
       <c r="I654" t="n">
         <v>-39.40481939914356</v>
@@ -27085,7 +27085,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>20.94119787216187</v>
+        <v>20.94411849975586</v>
       </c>
       <c r="I655" t="n">
         <v>-25.84925872210696</v>
@@ -27125,7 +27125,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>21.94392681121826</v>
+        <v>22.81761169433594</v>
       </c>
       <c r="I656" t="n">
         <v>-19.65642812635976</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>24.9292254447937</v>
+        <v>24.76781606674194</v>
       </c>
       <c r="I657" t="n">
         <v>-15.05214905159302</v>
@@ -27205,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>30.96951246261596</v>
+        <v>33.66323709487914</v>
       </c>
       <c r="I658" t="n">
         <v>-10.98981215791237</v>
@@ -27245,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>62.53910064697266</v>
+        <v>171212.8462791443</v>
       </c>
       <c r="I659" t="n">
         <v>-9.57946628548806</v>
@@ -27289,7 +27289,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>17.96627044677734</v>
+        <v>17.95434951782227</v>
       </c>
       <c r="I660" t="n">
         <v>-89.19804935424524</v>
@@ -27329,7 +27329,7 @@
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>19.94631290435791</v>
+        <v>20.16890048980713</v>
       </c>
       <c r="I661" t="n">
         <v>-40.28536243519115</v>
@@ -27369,7 +27369,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>21.94088697433472</v>
+        <v>21.94160223007202</v>
       </c>
       <c r="I662" t="n">
         <v>-26.93639427779717</v>
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>23.93448352813721</v>
+        <v>23.04637432098389</v>
       </c>
       <c r="I663" t="n">
         <v>-19.90456904594567</v>
@@ -27449,7 +27449,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>26.89564228057861</v>
+        <v>25.93022584915161</v>
       </c>
       <c r="I664" t="n">
         <v>-15.45422482946321</v>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
       <c r="H665" t="n">
-        <v>32.06253051757808</v>
+        <v>39.94265794754027</v>
       </c>
       <c r="I665" t="n">
         <v>-11.02515584972863</v>
@@ -27529,7 +27529,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>77.79097557067871</v>
+        <v>285359.3547344208</v>
       </c>
       <c r="I666" t="n">
         <v>-7.98861066284645</v>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>18.95021200180054</v>
+        <v>19.89244222640991</v>
       </c>
       <c r="I668" t="n">
         <v>-35.45746764471953</v>
@@ -27653,7 +27653,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>21.86447381973267</v>
+        <v>21.04634046554565</v>
       </c>
       <c r="I669" t="n">
         <v>-24.90615307415656</v>
@@ -27693,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>23.93567562103271</v>
+        <v>22.95541763305664</v>
       </c>
       <c r="I670" t="n">
         <v>-18.93786521716053</v>
@@ -27733,7 +27733,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>25.93761682510376</v>
+        <v>25.92802047729492</v>
       </c>
       <c r="I671" t="n">
         <v>-13.85705238936638</v>
@@ -27773,7 +27773,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>37.09616661071771</v>
+        <v>33.95080566406249</v>
       </c>
       <c r="I672" t="n">
         <v>-10.1663849504844</v>
@@ -27813,7 +27813,7 @@
         <v>1</v>
       </c>
       <c r="H673" t="n">
-        <v>598.4878540039062</v>
+        <v>67.82078742980957</v>
       </c>
       <c r="I673" t="n">
         <v>-3.123097089004272</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>20.10250091552734</v>
+        <v>15.95497131347656</v>
       </c>
       <c r="I674" t="n">
         <v>-36.17507147065015</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>21.48977518081665</v>
+        <v>21.87323570251465</v>
       </c>
       <c r="I675" t="n">
         <v>-22.33150088397609</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>22.93860912322998</v>
+        <v>23.15336465835571</v>
       </c>
       <c r="I676" t="n">
         <v>-10.67251947172889</v>
@@ -27981,7 +27981,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>24.62387084960938</v>
+        <v>24.47128295898438</v>
       </c>
       <c r="I677" t="n">
         <v>-8.141834670385995</v>
@@ -28021,7 +28021,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>25.93451738357544</v>
+        <v>25.94465017318726</v>
       </c>
       <c r="I678" t="n">
         <v>-6.626887217316474</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>29.5153260231018</v>
+        <v>30.95662593841553</v>
       </c>
       <c r="I679" t="n">
         <v>-4.961365363494156</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>1269.787788391113</v>
+        <v>2777.089834213257</v>
       </c>
       <c r="I680" t="n">
         <v>-3.181320530181872</v>
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>19.71030235290527</v>
+        <v>20.2021598815918</v>
       </c>
       <c r="I681" t="n">
         <v>-45.52871382558996</v>
@@ -28185,7 +28185,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>21.94068431854248</v>
+        <v>22.14006185531616</v>
       </c>
       <c r="I682" t="n">
         <v>-35.33598470555958</v>
@@ -28225,7 +28225,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>23.8795280456543</v>
+        <v>23.61732721328735</v>
       </c>
       <c r="I683" t="n">
         <v>-24.67573366176961</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>24.93679523468018</v>
+        <v>24.6424674987793</v>
       </c>
       <c r="I684" t="n">
         <v>-19.4458298354025</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>26.28827095031738</v>
+        <v>25.93398094177246</v>
       </c>
       <c r="I685" t="n">
         <v>-14.85770047629924</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>28.85338068008422</v>
+        <v>27.81304121017456</v>
       </c>
       <c r="I686" t="n">
         <v>-10.9891064326133</v>
@@ -28385,7 +28385,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>55.85527420043945</v>
+        <v>50.65011978149414</v>
       </c>
       <c r="I687" t="n">
         <v>-7.167956638966913</v>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>20.94540596008301</v>
+        <v>21.2087869644165</v>
       </c>
       <c r="I689" t="n">
         <v>-44.93196285813087</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="H690" t="n">
-        <v>22.72552251815796</v>
+        <v>23.13154935836792</v>
       </c>
       <c r="I690" t="n">
         <v>-28.72195453426284</v>
@@ -28549,7 +28549,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>23.93424510955811</v>
+        <v>24.25336837768555</v>
       </c>
       <c r="I691" t="n">
         <v>-20.86023408198391</v>
@@ -28589,7 +28589,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>25.11584758758545</v>
+        <v>25.63565969467163</v>
       </c>
       <c r="I692" t="n">
         <v>-17.24177128282749</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>30.77244758605957</v>
+        <v>28.06556224822997</v>
       </c>
       <c r="I693" t="n">
         <v>-12.09288258958238</v>
@@ -28669,7 +28669,7 @@
         <v>1</v>
       </c>
       <c r="H694" t="n">
-        <v>689.1381740570068</v>
+        <v>5334.918260574341</v>
       </c>
       <c r="I694" t="n">
         <v>-9.579119386707687</v>
@@ -28713,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="H695" t="n">
-        <v>20.71833610534668</v>
+        <v>11.46769523620605</v>
       </c>
       <c r="I695" t="n">
         <v>-80.59521829799431</v>
@@ -28753,7 +28753,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>21.94598913192749</v>
+        <v>21.83322906494141</v>
       </c>
       <c r="I696" t="n">
         <v>-40.81316661446084</v>
@@ -28793,7 +28793,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>23.41663837432861</v>
+        <v>23.59545230865479</v>
       </c>
       <c r="I697" t="n">
         <v>-24.55360878730608</v>
@@ -28833,7 +28833,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>24.46436882019043</v>
+        <v>24.63340759277344</v>
       </c>
       <c r="I698" t="n">
         <v>-18.09314021606095</v>
@@ -28873,7 +28873,7 @@
         <v>0</v>
       </c>
       <c r="H699" t="n">
-        <v>25.65091848373413</v>
+        <v>25.90537071228027</v>
       </c>
       <c r="I699" t="n">
         <v>-12.82572644746412</v>
@@ -28913,7 +28913,7 @@
         <v>0</v>
       </c>
       <c r="H700" t="n">
-        <v>27.96970605850219</v>
+        <v>29.14274930953978</v>
       </c>
       <c r="I700" t="n">
         <v>-8.861786278335309</v>
@@ -28953,7 +28953,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>6242.477416992188</v>
+        <v>64.88466262817383</v>
       </c>
       <c r="I701" t="n">
         <v>-2.13557309428383</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="H702" t="n">
-        <v>20.02954483032227</v>
+        <v>13.36288452148438</v>
       </c>
       <c r="I702" t="n">
         <v>-30.40132612584588</v>
@@ -29037,7 +29037,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>20.98674774169922</v>
+        <v>21.7837929725647</v>
       </c>
       <c r="I703" t="n">
         <v>-17.00990368325762</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>22.94015884399414</v>
+        <v>23.476243019104</v>
       </c>
       <c r="I704" t="n">
         <v>-10.79730769522136</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="H705" t="n">
-        <v>23.9403247833252</v>
+        <v>24.70290660858154</v>
       </c>
       <c r="I705" t="n">
         <v>-8.811205799682897</v>
@@ -29157,7 +29157,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>25.63297748565674</v>
+        <v>25.93690156936646</v>
       </c>
       <c r="I706" t="n">
         <v>-6.761410231047934</v>
@@ -29197,7 +29197,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>28.28590869903564</v>
+        <v>31.39883279800414</v>
       </c>
       <c r="I707" t="n">
         <v>-4.685592921636593</v>
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>32.00554847717285</v>
+        <v>20832.29231834412</v>
       </c>
       <c r="I708" t="n">
         <v>-2.727180357512142</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>19.88768577575684</v>
+        <v>12.58254051208496</v>
       </c>
       <c r="I709" t="n">
         <v>-65.05476353360359</v>
@@ -29321,7 +29321,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>21.94614410400391</v>
+        <v>22.17572927474976</v>
       </c>
       <c r="I710" t="n">
         <v>-39.40481939914356</v>
@@ -29361,7 +29361,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>23.66858720779419</v>
+        <v>23.89061450958252</v>
       </c>
       <c r="I711" t="n">
         <v>-25.84925872210696</v>
@@ -29401,7 +29401,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>24.77002143859863</v>
+        <v>25.16543865203857</v>
       </c>
       <c r="I712" t="n">
         <v>-19.65642812635976</v>
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>25.98953247070312</v>
+        <v>27.35698223114014</v>
       </c>
       <c r="I713" t="n">
         <v>-15.05214905159302</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>29.36555147171021</v>
+        <v>37.96983957290647</v>
       </c>
       <c r="I714" t="n">
         <v>-10.98981215791237</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>44.47293281555176</v>
+        <v>138.0281448364258</v>
       </c>
       <c r="I715" t="n">
         <v>-9.57946628548806</v>
@@ -29605,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>21.94734811782837</v>
+        <v>21.9510555267334</v>
       </c>
       <c r="I717" t="n">
         <v>-40.28536243519115</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>23.40894937515259</v>
+        <v>23.88381958007812</v>
       </c>
       <c r="I718" t="n">
         <v>-26.93639427779717</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>24.4220495223999</v>
+        <v>24.95014667510986</v>
       </c>
       <c r="I719" t="n">
         <v>-19.90456904594567</v>
@@ -29725,7 +29725,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>26.06260776519775</v>
+        <v>26.53110027313232</v>
       </c>
       <c r="I720" t="n">
         <v>-15.45422482946321</v>
@@ -29765,7 +29765,7 @@
         <v>0</v>
       </c>
       <c r="H721" t="n">
-        <v>29.8930287361145</v>
+        <v>33.81466865539551</v>
       </c>
       <c r="I721" t="n">
         <v>-11.02515584972863</v>
@@ -29805,7 +29805,7 @@
         <v>1</v>
       </c>
       <c r="H722" t="n">
-        <v>51.86104774475098</v>
+        <v>236.0365390777588</v>
       </c>
       <c r="I722" t="n">
         <v>-7.98861066284645</v>
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>20.86210250854492</v>
+        <v>20.07532119750977</v>
       </c>
       <c r="I723" t="n">
         <v>-56.01936716241615</v>
@@ -29889,7 +29889,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>21.81392908096313</v>
+        <v>22.1555233001709</v>
       </c>
       <c r="I724" t="n">
         <v>-35.45746764471953</v>
@@ -29929,7 +29929,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>23.57709407806396</v>
+        <v>23.92137050628662</v>
       </c>
       <c r="I725" t="n">
         <v>-24.90615307415656</v>
@@ -29969,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>24.74546432495117</v>
+        <v>24.96898174285889</v>
       </c>
       <c r="I726" t="n">
         <v>-18.93786521716053</v>
@@ -30009,7 +30009,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>25.93207359313965</v>
+        <v>26.16870403289795</v>
       </c>
       <c r="I727" t="n">
         <v>-13.85705238936638</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="H728" t="n">
-        <v>30.39820194244384</v>
+        <v>31.44283294677734</v>
       </c>
       <c r="I728" t="n">
         <v>-10.1663849504844</v>
@@ -30089,7 +30089,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>576.6391754150391</v>
+        <v>60.49346923828125</v>
       </c>
       <c r="I729" t="n">
         <v>-3.123097089004272</v>
@@ -30137,7 +30137,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>15.95735549926758</v>
+        <v>8.970499038696289</v>
       </c>
       <c r="I730" t="n">
         <v>-36.17507147065015</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="H731" t="n">
-        <v>17.91543960571289</v>
+        <v>9.916031360626221</v>
       </c>
       <c r="I731" t="n">
         <v>-22.33150088397609</v>
@@ -30217,7 +30217,7 @@
         <v>0</v>
       </c>
       <c r="H732" t="n">
-        <v>18.94879341125488</v>
+        <v>9.978592395782471</v>
       </c>
       <c r="I732" t="n">
         <v>-10.67251947172889</v>
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>19.9815034866333</v>
+        <v>10.97500324249268</v>
       </c>
       <c r="I733" t="n">
         <v>-8.141834670385995</v>
@@ -30297,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="H734" t="n">
-        <v>21.94058895111084</v>
+        <v>12.96430826187134</v>
       </c>
       <c r="I734" t="n">
         <v>-6.626887217316474</v>
@@ -30337,7 +30337,7 @@
         <v>0</v>
       </c>
       <c r="H735" t="n">
-        <v>27.0468473434448</v>
+        <v>20.21255493164061</v>
       </c>
       <c r="I735" t="n">
         <v>-4.961365363494156</v>
@@ -30377,7 +30377,7 @@
         <v>0</v>
       </c>
       <c r="H736" t="n">
-        <v>61.66219711303711</v>
+        <v>42.71483421325684</v>
       </c>
       <c r="I736" t="n">
         <v>-3.181320530181872</v>
@@ -30421,7 +30421,7 @@
         <v>0</v>
       </c>
       <c r="H737" t="n">
-        <v>16.94869995117188</v>
+        <v>8.973598480224609</v>
       </c>
       <c r="I737" t="n">
         <v>-45.52871382558996</v>
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>17.9490327835083</v>
+        <v>8.97597074508667</v>
       </c>
       <c r="I738" t="n">
         <v>-35.33598470555958</v>
@@ -30501,7 +30501,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>18.94938945770264</v>
+        <v>9.972333908081055</v>
       </c>
       <c r="I739" t="n">
         <v>-24.67573366176961</v>
@@ -30541,7 +30541,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>19.95480060577393</v>
+        <v>10.96677780151367</v>
       </c>
       <c r="I740" t="n">
         <v>-19.4458298354025</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>21.93224430084229</v>
+        <v>10.97685098648071</v>
       </c>
       <c r="I741" t="n">
         <v>-14.85770047629924</v>
@@ -30621,7 +30621,7 @@
         <v>0</v>
       </c>
       <c r="H742" t="n">
-        <v>28.05277109146117</v>
+        <v>13.965904712677</v>
       </c>
       <c r="I742" t="n">
         <v>-10.9891064326133</v>
@@ -30661,7 +30661,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>53.85518074035645</v>
+        <v>24.96600151062012</v>
       </c>
       <c r="I743" t="n">
         <v>-7.167956638966913</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>15.95687866210938</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>-64.40139920194096</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="H745" t="n">
-        <v>16.95441007614136</v>
+        <v>8.975505828857422</v>
       </c>
       <c r="I745" t="n">
         <v>-44.93196285813087</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>17.983078956604</v>
+        <v>9.973227977752686</v>
       </c>
       <c r="I746" t="n">
         <v>-28.72195453426284</v>
@@ -30825,7 +30825,7 @@
         <v>0</v>
       </c>
       <c r="H747" t="n">
-        <v>19.94264125823975</v>
+        <v>10.96701622009277</v>
       </c>
       <c r="I747" t="n">
         <v>-20.86023408198391</v>
@@ -30865,7 +30865,7 @@
         <v>0</v>
       </c>
       <c r="H748" t="n">
-        <v>21.35753631591797</v>
+        <v>11.00629568099976</v>
       </c>
       <c r="I748" t="n">
         <v>-17.24177128282749</v>
@@ -30905,7 +30905,7 @@
         <v>0</v>
       </c>
       <c r="H749" t="n">
-        <v>28.4169793128967</v>
+        <v>13.00678253173828</v>
       </c>
       <c r="I749" t="n">
         <v>-12.09288258958238</v>
@@ -30945,7 +30945,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>57.7690601348877</v>
+        <v>20.75719833374023</v>
       </c>
       <c r="I750" t="n">
         <v>-9.579119386707687</v>
@@ -30989,7 +30989,7 @@
         <v>0</v>
       </c>
       <c r="H751" t="n">
-        <v>15.92326164245605</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>-80.59521829799431</v>
@@ -31029,7 +31029,7 @@
         <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>16.95584058761597</v>
+        <v>8.975505828857422</v>
       </c>
       <c r="I752" t="n">
         <v>-40.81316661446084</v>
@@ -31069,7 +31069,7 @@
         <v>0</v>
       </c>
       <c r="H753" t="n">
-        <v>18.91529560089111</v>
+        <v>9.972572326660156</v>
       </c>
       <c r="I753" t="n">
         <v>-24.55360878730608</v>
@@ -31109,7 +31109,7 @@
         <v>0</v>
       </c>
       <c r="H754" t="n">
-        <v>19.9202299118042</v>
+        <v>10.96963882446289</v>
       </c>
       <c r="I754" t="n">
         <v>-18.09314021606095</v>
@@ -31149,7 +31149,7 @@
         <v>0</v>
       </c>
       <c r="H755" t="n">
-        <v>21.93737030029297</v>
+        <v>11.13241910934448</v>
       </c>
       <c r="I755" t="n">
         <v>-12.82572644746412</v>
@@ -31189,7 +31189,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="n">
-        <v>24.24679994583128</v>
+        <v>15.95759391784668</v>
       </c>
       <c r="I756" t="n">
         <v>-8.861786278335309</v>
@@ -31229,7 +31229,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="n">
-        <v>31.91113471984863</v>
+        <v>29.91390228271484</v>
       </c>
       <c r="I757" t="n">
         <v>-2.13557309428383</v>
@@ -31273,7 +31273,7 @@
         <v>0</v>
       </c>
       <c r="H758" t="n">
-        <v>15.9614086151123</v>
+        <v>8.974552154541016</v>
       </c>
       <c r="I758" t="n">
         <v>-30.40132612584588</v>
@@ -31313,7 +31313,7 @@
         <v>0</v>
       </c>
       <c r="H759" t="n">
-        <v>17.93961524963379</v>
+        <v>9.922099113464355</v>
       </c>
       <c r="I759" t="n">
         <v>-17.00990368325762</v>
@@ -31353,7 +31353,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>18.91487836837769</v>
+        <v>10.00803709030151</v>
       </c>
       <c r="I760" t="n">
         <v>-10.79730769522136</v>
@@ -31393,7 +31393,7 @@
         <v>0</v>
       </c>
       <c r="H761" t="n">
-        <v>18.98312568664551</v>
+        <v>10.97011566162109</v>
       </c>
       <c r="I761" t="n">
         <v>-8.811205799682897</v>
@@ -31433,7 +31433,7 @@
         <v>0</v>
       </c>
       <c r="H762" t="n">
-        <v>20.93905210494995</v>
+        <v>11.97034120559692</v>
       </c>
       <c r="I762" t="n">
         <v>-6.761410231047934</v>
@@ -31473,7 +31473,7 @@
         <v>0</v>
       </c>
       <c r="H763" t="n">
-        <v>23.00889492034911</v>
+        <v>15.31780958175658</v>
       </c>
       <c r="I763" t="n">
         <v>-4.685592921636593</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="H764" t="n">
-        <v>37.89830207824707</v>
+        <v>39.7334098815918</v>
       </c>
       <c r="I764" t="n">
         <v>-2.727180357512142</v>
@@ -31557,7 +31557,7 @@
         <v>0</v>
       </c>
       <c r="H765" t="n">
-        <v>15.95711708068848</v>
+        <v>0</v>
       </c>
       <c r="I765" t="n">
         <v>-65.05476353360359</v>
@@ -31597,7 +31597,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>17.94283390045166</v>
+        <v>8.974528312683105</v>
       </c>
       <c r="I766" t="n">
         <v>-39.40481939914356</v>
@@ -31637,7 +31637,7 @@
         <v>0</v>
       </c>
       <c r="H767" t="n">
-        <v>18.94497871398926</v>
+        <v>9.972989559173584</v>
       </c>
       <c r="I767" t="n">
         <v>-25.84925872210696</v>
@@ -31677,7 +31677,7 @@
         <v>0</v>
       </c>
       <c r="H768" t="n">
-        <v>19.91021633148193</v>
+        <v>10.96749305725098</v>
       </c>
       <c r="I768" t="n">
         <v>-19.65642812635976</v>
@@ -31717,7 +31717,7 @@
         <v>0</v>
       </c>
       <c r="H769" t="n">
-        <v>20.94340324401855</v>
+        <v>11.66379451751709</v>
       </c>
       <c r="I769" t="n">
         <v>-15.05214905159302</v>
@@ -31757,7 +31757,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>24.68905448913574</v>
+        <v>15.26768207550049</v>
       </c>
       <c r="I770" t="n">
         <v>-10.98981215791237</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>33.43892097473145</v>
+        <v>35.23659706115723</v>
       </c>
       <c r="I771" t="n">
         <v>-9.57946628548806</v>
@@ -31841,7 +31841,7 @@
         <v>0</v>
       </c>
       <c r="H772" t="n">
-        <v>15.95759391784668</v>
+        <v>2.294301986694336</v>
       </c>
       <c r="I772" t="n">
         <v>-89.19804935424524</v>
@@ -31881,7 +31881,7 @@
         <v>0</v>
       </c>
       <c r="H773" t="n">
-        <v>17.94363260269165</v>
+        <v>8.993852138519287</v>
       </c>
       <c r="I773" t="n">
         <v>-40.28536243519115</v>
@@ -31921,7 +31921,7 @@
         <v>0</v>
       </c>
       <c r="H774" t="n">
-        <v>18.94378662109375</v>
+        <v>9.972989559173584</v>
       </c>
       <c r="I774" t="n">
         <v>-26.93639427779717</v>
@@ -31961,7 +31961,7 @@
         <v>0</v>
       </c>
       <c r="H775" t="n">
-        <v>19.90926265716553</v>
+        <v>10.96987724304199</v>
       </c>
       <c r="I775" t="n">
         <v>-19.90456904594567</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>20.94203233718872</v>
+        <v>11.15405559539795</v>
       </c>
       <c r="I776" t="n">
         <v>-15.45422482946321</v>
@@ -32041,7 +32041,7 @@
         <v>0</v>
       </c>
       <c r="H777" t="n">
-        <v>22.94145822525024</v>
+        <v>14.96013402938843</v>
       </c>
       <c r="I777" t="n">
         <v>-11.02515584972863</v>
@@ -32081,7 +32081,7 @@
         <v>0</v>
       </c>
       <c r="H778" t="n">
-        <v>28.35845947265625</v>
+        <v>24.96695518493652</v>
       </c>
       <c r="I778" t="n">
         <v>-7.98861066284645</v>
@@ -32125,7 +32125,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>15.95783233642578</v>
+        <v>8.962392807006836</v>
       </c>
       <c r="I779" t="n">
         <v>-56.01936716241615</v>
@@ -32165,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>17.91163682937622</v>
+        <v>8.976686000823975</v>
       </c>
       <c r="I780" t="n">
         <v>-35.45746764471953</v>
@@ -32205,7 +32205,7 @@
         <v>0</v>
       </c>
       <c r="H781" t="n">
-        <v>17.99428462982178</v>
+        <v>9.977638721466064</v>
       </c>
       <c r="I781" t="n">
         <v>-24.90615307415656</v>
@@ -32245,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>19.90973949432373</v>
+        <v>10.9703540802002</v>
       </c>
       <c r="I782" t="n">
         <v>-18.93786521716053</v>
@@ -32285,7 +32285,7 @@
         <v>0</v>
       </c>
       <c r="H783" t="n">
-        <v>20.94465494155884</v>
+        <v>11.96414232254028</v>
       </c>
       <c r="I783" t="n">
         <v>-13.85705238936638</v>
@@ -32325,7 +32325,7 @@
         <v>0</v>
       </c>
       <c r="H784" t="n">
-        <v>23.93724918365479</v>
+        <v>15.28129577636718</v>
       </c>
       <c r="I784" t="n">
         <v>-10.1663849504844</v>
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
       <c r="H785" t="n">
-        <v>38.31958770751953</v>
+        <v>42.96016693115234</v>
       </c>
       <c r="I785" t="n">
         <v>-3.123097089004272</v>
@@ -32413,7 +32413,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>47.60527610778809</v>
+        <v>44.02017593383789</v>
       </c>
       <c r="I786" t="n">
         <v>-36.17507147065015</v>
@@ -32453,7 +32453,7 @@
         <v>0</v>
       </c>
       <c r="H787" t="n">
-        <v>48.81173372268677</v>
+        <v>47.15495109558105</v>
       </c>
       <c r="I787" t="n">
         <v>-22.33150088397609</v>
@@ -32493,7 +32493,7 @@
         <v>0</v>
       </c>
       <c r="H788" t="n">
-        <v>51.02956295013428</v>
+        <v>49.31402206420898</v>
       </c>
       <c r="I788" t="n">
         <v>-10.67251947172889</v>
@@ -32533,7 +32533,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>52.73866653442383</v>
+        <v>51.48601531982422</v>
       </c>
       <c r="I789" t="n">
         <v>-8.141834670385995</v>
@@ -32573,7 +32573,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>54.85481023788452</v>
+        <v>56.35464191436768</v>
       </c>
       <c r="I790" t="n">
         <v>-6.626887217316474</v>
@@ -32613,7 +32613,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="n">
-        <v>70.86186408996581</v>
+        <v>71.79894447326657</v>
       </c>
       <c r="I791" t="n">
         <v>-4.961365363494156</v>
@@ -32653,7 +32653,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>94.74635124206543</v>
+        <v>141.2162780761719</v>
       </c>
       <c r="I792" t="n">
         <v>-3.181320530181872</v>
@@ -32697,7 +32697,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>50.83107948303223</v>
+        <v>47.00231552124023</v>
       </c>
       <c r="I793" t="n">
         <v>-45.52871382558996</v>
@@ -32737,7 +32737,7 @@
         <v>0</v>
       </c>
       <c r="H794" t="n">
-        <v>52.2863507270813</v>
+        <v>50.00922679901123</v>
       </c>
       <c r="I794" t="n">
         <v>-35.33598470555958</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="H795" t="n">
-        <v>54.06886339187622</v>
+        <v>51.73313617706299</v>
       </c>
       <c r="I795" t="n">
         <v>-24.67573366176961</v>
@@ -32817,7 +32817,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="n">
-        <v>56.15687370300293</v>
+        <v>53.22003364562988</v>
       </c>
       <c r="I796" t="n">
         <v>-19.4458298354025</v>
@@ -32857,7 +32857,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>58.66533517837524</v>
+        <v>55.9694766998291</v>
       </c>
       <c r="I797" t="n">
         <v>-14.85770047629924</v>
@@ -32897,7 +32897,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>70.86498737335204</v>
+        <v>67.69183874130246</v>
       </c>
       <c r="I798" t="n">
         <v>-10.9891064326133</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="H799" t="n">
-        <v>114.3159866333008</v>
+        <v>81.1765193939209</v>
       </c>
       <c r="I799" t="n">
         <v>-7.167956638966913</v>
@@ -32981,7 +32981,7 @@
         <v>0</v>
       </c>
       <c r="H800" t="n">
-        <v>48.78044128417969</v>
+        <v>42.9995059967041</v>
       </c>
       <c r="I800" t="n">
         <v>-64.40139920194096</v>
@@ -33021,7 +33021,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>50.12843608856201</v>
+        <v>49.90071058273315</v>
       </c>
       <c r="I801" t="n">
         <v>-44.93196285813087</v>
@@ -33061,7 +33061,7 @@
         <v>0</v>
       </c>
       <c r="H802" t="n">
-        <v>52.69575119018555</v>
+        <v>51.3230562210083</v>
       </c>
       <c r="I802" t="n">
         <v>-28.72195453426284</v>
@@ -33101,7 +33101,7 @@
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>54.07357215881348</v>
+        <v>53.42292785644531</v>
       </c>
       <c r="I803" t="n">
         <v>-20.86023408198391</v>
@@ -33141,7 +33141,7 @@
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>57.58380889892578</v>
+        <v>59.21053886413574</v>
       </c>
       <c r="I804" t="n">
         <v>-17.24177128282749</v>
@@ -33181,7 +33181,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>79.87964153289792</v>
+        <v>71.35359048843384</v>
       </c>
       <c r="I805" t="n">
         <v>-12.09288258958238</v>
@@ -33221,7 +33221,7 @@
         <v>0</v>
       </c>
       <c r="H806" t="n">
-        <v>114.6938800811768</v>
+        <v>86.18426322937012</v>
       </c>
       <c r="I806" t="n">
         <v>-9.579119386707687</v>
@@ -33265,7 +33265,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="n">
-        <v>47.17350006103516</v>
+        <v>42.62828826904297</v>
       </c>
       <c r="I807" t="n">
         <v>-80.59521829799431</v>
@@ -33305,7 +33305,7 @@
         <v>0</v>
       </c>
       <c r="H808" t="n">
-        <v>50.69440603256226</v>
+        <v>49.10435676574707</v>
       </c>
       <c r="I808" t="n">
         <v>-40.81316661446084</v>
@@ -33345,7 +33345,7 @@
         <v>0</v>
       </c>
       <c r="H809" t="n">
-        <v>52.45697498321533</v>
+        <v>50.86582899093628</v>
       </c>
       <c r="I809" t="n">
         <v>-24.55360878730608</v>
@@ -33385,7 +33385,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>54.23569679260254</v>
+        <v>52.4972677230835</v>
       </c>
       <c r="I810" t="n">
         <v>-18.09314021606095</v>
@@ -33425,7 +33425,7 @@
         <v>0</v>
       </c>
       <c r="H811" t="n">
-        <v>56.84733390808105</v>
+        <v>55.69010972976685</v>
       </c>
       <c r="I811" t="n">
         <v>-12.82572644746412</v>
@@ -33465,7 +33465,7 @@
         <v>0</v>
       </c>
       <c r="H812" t="n">
-        <v>63.83527517318726</v>
+        <v>66.03672504425047</v>
       </c>
       <c r="I812" t="n">
         <v>-8.861786278335309</v>
@@ -33505,7 +33505,7 @@
         <v>0</v>
       </c>
       <c r="H813" t="n">
-        <v>89.44606781005859</v>
+        <v>148.9324569702148</v>
       </c>
       <c r="I813" t="n">
         <v>-2.13557309428383</v>
@@ -33549,7 +33549,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="n">
-        <v>48.63238334655762</v>
+        <v>47.36685752868652</v>
       </c>
       <c r="I814" t="n">
         <v>-30.40132612584588</v>
@@ -33589,7 +33589,7 @@
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>50.29816627502441</v>
+        <v>49.85952377319336</v>
       </c>
       <c r="I815" t="n">
         <v>-17.00990368325762</v>
@@ -33629,7 +33629,7 @@
         <v>0</v>
       </c>
       <c r="H816" t="n">
-        <v>52.8225302696228</v>
+        <v>51.36680603027344</v>
       </c>
       <c r="I816" t="n">
         <v>-10.79730769522136</v>
@@ -33669,7 +33669,7 @@
         <v>0</v>
       </c>
       <c r="H817" t="n">
-        <v>54.94391918182373</v>
+        <v>53.17211151123047</v>
       </c>
       <c r="I817" t="n">
         <v>-8.811205799682897</v>
@@ -33709,7 +33709,7 @@
         <v>0</v>
       </c>
       <c r="H818" t="n">
-        <v>59.16136503219604</v>
+        <v>56.39839172363281</v>
       </c>
       <c r="I818" t="n">
         <v>-6.761410231047934</v>
@@ -33749,7 +33749,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>73.81211519241333</v>
+        <v>70.90994119644162</v>
       </c>
       <c r="I819" t="n">
         <v>-4.685592921636593</v>
@@ -33789,7 +33789,7 @@
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>169.5475578308105</v>
+        <v>105.1771640777588</v>
       </c>
       <c r="I820" t="n">
         <v>-2.727180357512142</v>
@@ -33833,7 +33833,7 @@
         <v>0</v>
       </c>
       <c r="H821" t="n">
-        <v>50.86517333984375</v>
+        <v>41.28718376159668</v>
       </c>
       <c r="I821" t="n">
         <v>-65.05476353360359</v>
@@ -33873,7 +33873,7 @@
         <v>0</v>
       </c>
       <c r="H822" t="n">
-        <v>54.85438108444214</v>
+        <v>51.84439420700073</v>
       </c>
       <c r="I822" t="n">
         <v>-39.40481939914356</v>
@@ -33913,7 +33913,7 @@
         <v>0</v>
       </c>
       <c r="H823" t="n">
-        <v>56.84953927993774</v>
+        <v>53.82668972015381</v>
       </c>
       <c r="I823" t="n">
         <v>-25.84925872210696</v>
@@ -33953,7 +33953,7 @@
         <v>0</v>
       </c>
       <c r="H824" t="n">
-        <v>59.76235866546631</v>
+        <v>55.83834648132324</v>
       </c>
       <c r="I824" t="n">
         <v>-19.65642812635976</v>
@@ -33993,7 +33993,7 @@
         <v>0</v>
       </c>
       <c r="H825" t="n">
-        <v>63.70073556900024</v>
+        <v>59.06105041503906</v>
       </c>
       <c r="I825" t="n">
         <v>-15.05214905159302</v>
@@ -34033,7 +34033,7 @@
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>77.98827886581414</v>
+        <v>72.63500690460205</v>
       </c>
       <c r="I826" t="n">
         <v>-10.98981215791237</v>
@@ -34073,7 +34073,7 @@
         <v>0</v>
       </c>
       <c r="H827" t="n">
-        <v>158.524751663208</v>
+        <v>383.7594985961914</v>
       </c>
       <c r="I827" t="n">
         <v>-9.57946628548806</v>
@@ -34117,7 +34117,7 @@
         <v>0</v>
       </c>
       <c r="H828" t="n">
-        <v>52.83141136169434</v>
+        <v>50.02045631408691</v>
       </c>
       <c r="I828" t="n">
         <v>-89.19804935424524</v>
@@ -34157,7 +34157,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="n">
-        <v>54.52505350112915</v>
+        <v>51.81905031204224</v>
       </c>
       <c r="I829" t="n">
         <v>-40.28536243519115</v>
@@ -34197,7 +34197,7 @@
         <v>0</v>
       </c>
       <c r="H830" t="n">
-        <v>56.84781074523926</v>
+        <v>53.85684967041016</v>
       </c>
       <c r="I830" t="n">
         <v>-26.93639427779717</v>
@@ -34237,7 +34237,7 @@
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>58.84206295013428</v>
+        <v>55.81378936767578</v>
       </c>
       <c r="I831" t="n">
         <v>-19.90456904594567</v>
@@ -34277,7 +34277,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>62.83360719680786</v>
+        <v>59.82059240341187</v>
       </c>
       <c r="I832" t="n">
         <v>-15.45422482946321</v>
@@ -34317,7 +34317,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>81.91028833389277</v>
+        <v>68.29012632369994</v>
       </c>
       <c r="I833" t="n">
         <v>-11.02515584972863</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="H834" t="n">
-        <v>113.6970520019531</v>
+        <v>570.9958076477051</v>
       </c>
       <c r="I834" t="n">
         <v>-7.98861066284645</v>
@@ -34401,7 +34401,7 @@
         <v>0</v>
       </c>
       <c r="H835" t="n">
-        <v>52.85763740539551</v>
+        <v>47.96814918518066</v>
       </c>
       <c r="I835" t="n">
         <v>-56.01936716241615</v>
@@ -34441,7 +34441,7 @@
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>54.85128164291382</v>
+        <v>49.86846446990967</v>
       </c>
       <c r="I836" t="n">
         <v>-35.45746764471953</v>
@@ -34481,7 +34481,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>58.63362550735474</v>
+        <v>51.8607497215271</v>
       </c>
       <c r="I837" t="n">
         <v>-24.90615307415656</v>
@@ -34521,7 +34521,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>61.83135509490967</v>
+        <v>53.82406711578369</v>
       </c>
       <c r="I838" t="n">
         <v>-18.93786521716053</v>
@@ -34561,7 +34561,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>64.92763757705688</v>
+        <v>55.86123466491699</v>
       </c>
       <c r="I839" t="n">
         <v>-13.85705238936638</v>
@@ -34601,7 +34601,7 @@
         <v>0</v>
       </c>
       <c r="H840" t="n">
-        <v>79.30866479873657</v>
+        <v>65.41645526885985</v>
       </c>
       <c r="I840" t="n">
         <v>-10.1663849504844</v>
@@ -34641,7 +34641,7 @@
         <v>0</v>
       </c>
       <c r="H841" t="n">
-        <v>551.5298843383789</v>
+        <v>99.9443531036377</v>
       </c>
       <c r="I841" t="n">
         <v>-3.123097089004272</v>
@@ -34689,7 +34689,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>595.5324172973633</v>
+        <v>342.0760631561279</v>
       </c>
       <c r="I842" t="n">
         <v>-36.17507147065015</v>
@@ -34729,7 +34729,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>608.6176872253418</v>
+        <v>344.3213820457458</v>
       </c>
       <c r="I843" t="n">
         <v>-22.33150088397609</v>
@@ -34769,7 +34769,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>623.1385469436646</v>
+        <v>353.0945777893066</v>
       </c>
       <c r="I844" t="n">
         <v>-10.67251947172889</v>
@@ -34809,7 +34809,7 @@
         <v>0</v>
       </c>
       <c r="H845" t="n">
-        <v>643.7749862670898</v>
+        <v>373.0283975601196</v>
       </c>
       <c r="I845" t="n">
         <v>-8.141834670385995</v>
@@ -34849,7 +34849,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>695.3942179679871</v>
+        <v>430.0767779350281</v>
       </c>
       <c r="I846" t="n">
         <v>-6.626887217316474</v>
@@ -34889,7 +34889,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>807.7749490737914</v>
+        <v>611.8156909942626</v>
       </c>
       <c r="I847" t="n">
         <v>-4.961365363494156</v>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
       <c r="H848" t="n">
-        <v>1101.317644119263</v>
+        <v>916.4977073669434</v>
       </c>
       <c r="I848" t="n">
         <v>-3.181320530181872</v>
@@ -34973,7 +34973,7 @@
         <v>0</v>
       </c>
       <c r="H849" t="n">
-        <v>590.8486843109131</v>
+        <v>337.557315826416</v>
       </c>
       <c r="I849" t="n">
         <v>-45.52871382558996</v>
@@ -35013,7 +35013,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>603.2113790512085</v>
+        <v>343.0127024650574</v>
       </c>
       <c r="I850" t="n">
         <v>-35.33598470555958</v>
@@ -35053,7 +35053,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>621.6778755187988</v>
+        <v>348.0350971221924</v>
       </c>
       <c r="I851" t="n">
         <v>-24.67573366176961</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="H852" t="n">
-        <v>647.5783586502075</v>
+        <v>351.5874147415161</v>
       </c>
       <c r="I852" t="n">
         <v>-19.4458298354025</v>
@@ -35133,7 +35133,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>701.1048197746277</v>
+        <v>358.9372038841248</v>
       </c>
       <c r="I853" t="n">
         <v>-14.85770047629924</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>805.37109375</v>
+        <v>402.0929932594298</v>
       </c>
       <c r="I854" t="n">
         <v>-10.9891064326133</v>
@@ -35213,7 +35213,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>1332.37361907959</v>
+        <v>591.0103321075439</v>
       </c>
       <c r="I855" t="n">
         <v>-7.167956638966913</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>589.2024040222168</v>
+        <v>338.0999565124512</v>
       </c>
       <c r="I856" t="n">
         <v>-64.40139920194096</v>
@@ -35297,7 +35297,7 @@
         <v>0</v>
       </c>
       <c r="H857" t="n">
-        <v>594.6301698684692</v>
+        <v>342.0887589454651</v>
       </c>
       <c r="I857" t="n">
         <v>-44.93196285813087</v>
@@ -35337,7 +35337,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>605.938196182251</v>
+        <v>349.4617342948914</v>
       </c>
       <c r="I858" t="n">
         <v>-28.72195453426284</v>
@@ -35377,7 +35377,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>624.8856782913208</v>
+        <v>356.0315370559692</v>
       </c>
       <c r="I859" t="n">
         <v>-20.86023408198391</v>
@@ -35417,7 +35417,7 @@
         <v>0</v>
       </c>
       <c r="H860" t="n">
-        <v>684.4328641891479</v>
+        <v>366.840124130249</v>
       </c>
       <c r="I860" t="n">
         <v>-17.24177128282749</v>
@@ -35457,7 +35457,7 @@
         <v>0</v>
       </c>
       <c r="H861" t="n">
-        <v>922.0205783843994</v>
+        <v>427.9520869255065</v>
       </c>
       <c r="I861" t="n">
         <v>-12.09288258958238</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="H862" t="n">
-        <v>1344.005346298218</v>
+        <v>524.2159366607666</v>
       </c>
       <c r="I862" t="n">
         <v>-9.579119386707687</v>
@@ -35541,7 +35541,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="n">
-        <v>588.2365703582764</v>
+        <v>338.1483554840088</v>
       </c>
       <c r="I863" t="n">
         <v>-80.59521829799431</v>
@@ -35581,7 +35581,7 @@
         <v>0</v>
       </c>
       <c r="H864" t="n">
-        <v>601.4330387115479</v>
+        <v>344.022262096405</v>
       </c>
       <c r="I864" t="n">
         <v>-40.81316661446084</v>
@@ -35621,7 +35621,7 @@
         <v>0</v>
       </c>
       <c r="H865" t="n">
-        <v>612.321674823761</v>
+        <v>349.0608334541321</v>
       </c>
       <c r="I865" t="n">
         <v>-24.55360878730608</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="H866" t="n">
-        <v>623.3857870101929</v>
+        <v>357.2019338607788</v>
       </c>
       <c r="I866" t="n">
         <v>-18.09314021606095</v>
@@ -35701,7 +35701,7 @@
         <v>0</v>
       </c>
       <c r="H867" t="n">
-        <v>658.8776707649231</v>
+        <v>376.8839240074158</v>
       </c>
       <c r="I867" t="n">
         <v>-12.82572644746412</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="H868" t="n">
-        <v>716.6498541831969</v>
+        <v>423.1013774871826</v>
       </c>
       <c r="I868" t="n">
         <v>-8.861786278335309</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>861.5555763244629</v>
+        <v>467.14186668396</v>
       </c>
       <c r="I869" t="n">
         <v>-2.13557309428383</v>
@@ -35825,7 +35825,7 @@
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>585.721492767334</v>
+        <v>338.9229774475098</v>
       </c>
       <c r="I870" t="n">
         <v>-30.40132612584588</v>
@@ -35865,7 +35865,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>605.3751707077026</v>
+        <v>344.5569157600403</v>
       </c>
       <c r="I871" t="n">
         <v>-17.00990368325762</v>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>620.3198432922363</v>
+        <v>357.0386171340942</v>
       </c>
       <c r="I872" t="n">
         <v>-10.79730769522136</v>
@@ -35945,7 +35945,7 @@
         <v>0</v>
       </c>
       <c r="H873" t="n">
-        <v>636.981725692749</v>
+        <v>372.8584051132202</v>
       </c>
       <c r="I873" t="n">
         <v>-8.811205799682897</v>
@@ -35985,7 +35985,7 @@
         <v>0</v>
       </c>
       <c r="H874" t="n">
-        <v>660.0937843322754</v>
+        <v>400.9647965431213</v>
       </c>
       <c r="I874" t="n">
         <v>-6.761410231047934</v>
@@ -36025,7 +36025,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>714.0325784683226</v>
+        <v>482.0055007934569</v>
       </c>
       <c r="I875" t="n">
         <v>-4.685592921636593</v>
@@ -36065,7 +36065,7 @@
         <v>0</v>
       </c>
       <c r="H876" t="n">
-        <v>795.346736907959</v>
+        <v>597.6977348327637</v>
       </c>
       <c r="I876" t="n">
         <v>-2.727180357512142</v>
@@ -36109,7 +36109,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>587.9063606262207</v>
+        <v>329.4777870178223</v>
       </c>
       <c r="I877" t="n">
         <v>-65.05476353360359</v>
@@ -36149,7 +36149,7 @@
         <v>0</v>
       </c>
       <c r="H878" t="n">
-        <v>603.7492871284485</v>
+        <v>343.8617825508118</v>
       </c>
       <c r="I878" t="n">
         <v>-39.40481939914356</v>
@@ -36189,7 +36189,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>618.2088851928711</v>
+        <v>350.0840663909912</v>
       </c>
       <c r="I879" t="n">
         <v>-25.84925872210696</v>
@@ -36229,7 +36229,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>630.3696632385254</v>
+        <v>357.9558134078979</v>
       </c>
       <c r="I880" t="n">
         <v>-19.65642812635976</v>
@@ -36269,7 +36269,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>664.1868948936462</v>
+        <v>374.2102980613708</v>
       </c>
       <c r="I881" t="n">
         <v>-15.05214905159302</v>
@@ -36309,7 +36309,7 @@
         <v>0</v>
       </c>
       <c r="H882" t="n">
-        <v>714.4236207008362</v>
+        <v>420.7640528678892</v>
       </c>
       <c r="I882" t="n">
         <v>-10.98981215791237</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H883" t="n">
-        <v>885.4129314422607</v>
+        <v>574.5136737823486</v>
       </c>
       <c r="I883" t="n">
         <v>-9.57946628548806</v>
@@ -36393,7 +36393,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>595.8402156829834</v>
+        <v>337.1083736419678</v>
       </c>
       <c r="I884" t="n">
         <v>-89.19804935424524</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>607.6464772224426</v>
+        <v>344.0550327301025</v>
       </c>
       <c r="I885" t="n">
         <v>-40.28536243519115</v>
@@ -36473,7 +36473,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>619.9861168861389</v>
+        <v>351.5016436576843</v>
       </c>
       <c r="I886" t="n">
         <v>-26.93639427779717</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>636.1967325210571</v>
+        <v>360.2054119110107</v>
       </c>
       <c r="I887" t="n">
         <v>-19.90456904594567</v>
@@ -36553,7 +36553,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>658.0581665039062</v>
+        <v>378.6580562591553</v>
       </c>
       <c r="I888" t="n">
         <v>-15.45422482946321</v>
@@ -36593,7 +36593,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>714.9544477462769</v>
+        <v>438.3913636207579</v>
       </c>
       <c r="I889" t="n">
         <v>-11.02515584972863</v>
@@ -36633,7 +36633,7 @@
         <v>0</v>
       </c>
       <c r="H890" t="n">
-        <v>772.937536239624</v>
+        <v>556.5741062164307</v>
       </c>
       <c r="I890" t="n">
         <v>-7.98861066284645</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>599.8194217681885</v>
+        <v>337.571382522583</v>
       </c>
       <c r="I891" t="n">
         <v>-56.01936716241615</v>
@@ -36717,7 +36717,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>614.5702958106995</v>
+        <v>341.3525700569153</v>
       </c>
       <c r="I892" t="n">
         <v>-35.45746764471953</v>
@@ -36757,7 +36757,7 @@
         <v>0</v>
       </c>
       <c r="H893" t="n">
-        <v>627.8649568557739</v>
+        <v>348.6859798431396</v>
       </c>
       <c r="I893" t="n">
         <v>-24.90615307415656</v>
@@ -36797,7 +36797,7 @@
         <v>0</v>
       </c>
       <c r="H894" t="n">
-        <v>645.885705947876</v>
+        <v>356.4085960388184</v>
       </c>
       <c r="I894" t="n">
         <v>-18.93786521716053</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="H895" t="n">
-        <v>674.2851138114929</v>
+        <v>373.7278580665588</v>
       </c>
       <c r="I895" t="n">
         <v>-13.85705238936638</v>
@@ -36877,7 +36877,7 @@
         <v>0</v>
       </c>
       <c r="H896" t="n">
-        <v>726.0584712028503</v>
+        <v>476.1482596397398</v>
       </c>
       <c r="I896" t="n">
         <v>-10.1663849504844</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="H897" t="n">
-        <v>990.7307624816895</v>
+        <v>618.5359954833984</v>
       </c>
       <c r="I897" t="n">
         <v>-3.123097089004272</v>
